--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC03D499-FE74-40D8-A93F-05468337A801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD349F-AACF-43F6-85F5-047321EEF0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
     <sheet name="ScoreF" sheetId="2" r:id="rId2"/>
-    <sheet name="ScoreMatrix" sheetId="3" r:id="rId3"/>
+    <sheet name="SFM" sheetId="4" r:id="rId3"/>
+    <sheet name="SFF" sheetId="5" r:id="rId4"/>
+    <sheet name="ScoreMatrix" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Team</t>
   </si>
@@ -151,6 +153,12 @@
   </si>
   <si>
     <t>points</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>Clean and Jerk</t>
   </si>
 </sst>
 </file>
@@ -511,16 +519,16 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K11"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -608,7 +616,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -643,7 +651,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -678,7 +686,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -713,7 +721,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -748,7 +756,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -783,7 +791,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -818,7 +826,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -853,7 +861,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -888,7 +896,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -934,16 +942,16 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,7 +1004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1022,7 +1030,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +1056,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1074,7 +1082,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1108,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1152,7 +1160,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1178,7 +1186,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1204,7 +1212,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1236,6 +1244,220 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>77</v>
+      </c>
+      <c r="C7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>66</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE0349A-1D2A-4BA4-9394-3B33A3DE0436}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1243,9 +1465,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1253,7 +1475,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1261,7 +1483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1269,7 +1491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1277,7 +1499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1285,7 +1507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1293,7 +1515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1301,7 +1523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1309,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1317,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1325,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\PD 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BD349F-AACF-43F6-85F5-047321EEF0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B80A4-4B06-41AB-8F46-4B4A061EBDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="3" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Team</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>Clean and Jerk</t>
+  </si>
+  <si>
+    <t>Team A</t>
+  </si>
+  <si>
+    <t>Team B</t>
+  </si>
+  <si>
+    <t>Team C</t>
+  </si>
+  <si>
+    <t>Team D</t>
+  </si>
+  <si>
+    <t>Team E</t>
+  </si>
+  <si>
+    <t>Team F</t>
   </si>
 </sst>
 </file>
@@ -519,7 +537,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,33 +606,6 @@
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>125</v>
-      </c>
-      <c r="I2">
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <v>58</v>
-      </c>
-      <c r="K2">
-        <v>250</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -623,33 +614,6 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>118</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>233</v>
-      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -658,33 +622,6 @@
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>130</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>239</v>
-      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -693,33 +630,6 @@
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>56</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>147</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>211</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -728,33 +638,6 @@
       <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>158</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>31</v>
-      </c>
-      <c r="K6">
-        <v>250</v>
-      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -763,33 +646,6 @@
       <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>162</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>250</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -798,33 +654,6 @@
       <c r="B8">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>31</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>95</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>55</v>
-      </c>
-      <c r="K8">
-        <v>250</v>
-      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -833,33 +662,6 @@
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>133</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>31</v>
-      </c>
-      <c r="K9">
-        <v>250</v>
-      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -868,33 +670,6 @@
       <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>44</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>140</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>46</v>
-      </c>
-      <c r="K10">
-        <v>250</v>
-      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -902,33 +677,6 @@
       </c>
       <c r="B11">
         <v>15</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>128</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <v>58</v>
-      </c>
-      <c r="K11">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -941,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,24 +759,6 @@
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>58</v>
-      </c>
-      <c r="H2">
-        <v>250</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1037,24 +767,6 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>233</v>
-      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1063,24 +775,6 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>33</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>239</v>
-      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1089,24 +783,6 @@
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>56</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>211</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1115,24 +791,6 @@
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>44</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>31</v>
-      </c>
-      <c r="H6">
-        <v>250</v>
-      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1141,24 +799,6 @@
       <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>250</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1167,24 +807,6 @@
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>31</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>55</v>
-      </c>
-      <c r="H8">
-        <v>250</v>
-      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1193,24 +815,6 @@
       <c r="B9">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>31</v>
-      </c>
-      <c r="H9">
-        <v>250</v>
-      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1218,24 +822,6 @@
       </c>
       <c r="B10">
         <v>15</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>44</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>46</v>
-      </c>
-      <c r="H10">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1245,10 +831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,79 +856,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>75</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>78</v>
-      </c>
-      <c r="C3">
-        <v>111</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>99</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>66</v>
-      </c>
-      <c r="C5">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>98</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>77</v>
-      </c>
-      <c r="C7">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>65</v>
-      </c>
-      <c r="C8">
-        <v>101</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1352,10 +891,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,79 +916,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>66</v>
-      </c>
-      <c r="C2">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>59</v>
-      </c>
-      <c r="C3">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>72</v>
-      </c>
-      <c r="C4">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>78</v>
-      </c>
-      <c r="C5">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>55</v>
-      </c>
-      <c r="C6">
-        <v>91</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>69</v>
-      </c>
-      <c r="C7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>70</v>
-      </c>
-      <c r="C8">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\PD 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B80A4-4B06-41AB-8F46-4B4A061EBDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E0D40-151E-4EA5-8EF0-66CDD3406D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" activeTab="3" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15630" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>Team</t>
   </si>
@@ -159,24 +159,6 @@
   </si>
   <si>
     <t>Clean and Jerk</t>
-  </si>
-  <si>
-    <t>Team A</t>
-  </si>
-  <si>
-    <t>Team B</t>
-  </si>
-  <si>
-    <t>Team C</t>
-  </si>
-  <si>
-    <t>Team D</t>
-  </si>
-  <si>
-    <t>Team E</t>
-  </si>
-  <si>
-    <t>Team F</t>
   </si>
 </sst>
 </file>
@@ -537,7 +519,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +586,52 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>116</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>204</v>
+      </c>
+      <c r="L2">
+        <v>16</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>115</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -614,13 +641,103 @@
       <c r="B3">
         <v>3</v>
       </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>107</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>218</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>116</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>36</v>
+      </c>
+      <c r="Q3">
+        <v>300</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>76</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>208</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>102</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>38</v>
+      </c>
+      <c r="Q4">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -630,6 +747,51 @@
       <c r="B5">
         <v>5</v>
       </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>119</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>190</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>110</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -638,6 +800,51 @@
       <c r="B6">
         <v>6</v>
       </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>76</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>253</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>187</v>
+      </c>
+      <c r="L6">
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>94</v>
+      </c>
+      <c r="O6">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>270</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -646,6 +853,51 @@
       <c r="B7">
         <v>7</v>
       </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>185</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>118</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>259</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -654,6 +906,51 @@
       <c r="B8">
         <v>8</v>
       </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>102</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>205</v>
+      </c>
+      <c r="L8">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>27</v>
+      </c>
+      <c r="Q8">
+        <v>300</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -662,6 +959,51 @@
       <c r="B9">
         <v>10</v>
       </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>113</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>224</v>
+      </c>
+      <c r="L9">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>116</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <v>300</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -670,6 +1012,51 @@
       <c r="B10">
         <v>12</v>
       </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>107</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>217</v>
+      </c>
+      <c r="L10">
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>75</v>
+      </c>
+      <c r="O10">
+        <v>15</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>290</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -677,6 +1064,51 @@
       </c>
       <c r="B11">
         <v>15</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>104</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>210</v>
+      </c>
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>110</v>
+      </c>
+      <c r="O11">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>49</v>
+      </c>
+      <c r="Q11">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -689,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,6 +1191,42 @@
       <c r="B2">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>300</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>181</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -767,6 +1235,42 @@
       <c r="B3">
         <v>4</v>
       </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>88</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>293</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>183</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -774,6 +1278,42 @@
       </c>
       <c r="B4">
         <v>5</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>82</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>215</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -783,6 +1323,42 @@
       <c r="B5">
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>58</v>
+      </c>
+      <c r="H5">
+        <v>300</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>214</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -790,6 +1366,42 @@
       </c>
       <c r="B6">
         <v>7</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>106</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>182</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -799,6 +1411,42 @@
       <c r="B7">
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>300</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>223</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>93</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -807,6 +1455,42 @@
       <c r="B8">
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>82</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>57</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>188</v>
+      </c>
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -815,6 +1499,42 @@
       <c r="B9">
         <v>12</v>
       </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>94</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>186</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -822,6 +1542,42 @@
       </c>
       <c r="B10">
         <v>15</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>112</v>
+      </c>
+      <c r="F10">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>189</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +1590,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,32 +1612,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>77</v>
+      </c>
+      <c r="C7">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -891,10 +1683,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,32 +1708,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>66</v>
+      </c>
+      <c r="C2">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E0D40-151E-4EA5-8EF0-66CDD3406D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C49EA1-40D4-4FAA-8671-A9664DA082E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15630" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1227,15 @@
       <c r="N2">
         <v>100</v>
       </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+      <c r="Q2">
+        <v>300</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1271,6 +1280,15 @@
       <c r="N3">
         <v>76</v>
       </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>300</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1314,6 +1332,15 @@
       </c>
       <c r="N4">
         <v>92</v>
+      </c>
+      <c r="O4">
+        <v>15</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1359,6 +1386,15 @@
       <c r="N5">
         <v>83</v>
       </c>
+      <c r="O5">
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1402,6 +1438,15 @@
       </c>
       <c r="N6">
         <v>75</v>
+      </c>
+      <c r="O6">
+        <v>14</v>
+      </c>
+      <c r="P6">
+        <v>46</v>
+      </c>
+      <c r="Q6">
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1447,6 +1492,15 @@
       <c r="N7">
         <v>93</v>
       </c>
+      <c r="O7">
+        <v>13</v>
+      </c>
+      <c r="P7">
+        <v>49</v>
+      </c>
+      <c r="Q7">
+        <v>300</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1491,6 +1545,15 @@
       <c r="N8">
         <v>81</v>
       </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>14</v>
+      </c>
+      <c r="Q8">
+        <v>300</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1535,6 +1598,15 @@
       <c r="N9">
         <v>85</v>
       </c>
+      <c r="O9">
+        <v>15</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>274</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1578,6 +1650,15 @@
       </c>
       <c r="N10">
         <v>104</v>
+      </c>
+      <c r="O10">
+        <v>12</v>
+      </c>
+      <c r="P10">
+        <v>27</v>
+      </c>
+      <c r="Q10">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C49EA1-40D4-4FAA-8671-A9664DA082E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99BFA66-E5D5-4CAD-A3DF-C0A738E32E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>14</v>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99BFA66-E5D5-4CAD-A3DF-C0A738E32E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E13B262-EF12-44AE-8935-8AC578DD9117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>16</v>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E13B262-EF12-44AE-8935-8AC578DD9117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBD85D0-6568-4201-A034-007C01904166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1295,7 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>16</v>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBD85D0-6568-4201-A034-007C01904166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C413B0E3-4026-4CC0-A112-73DF84538092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="3" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
     <sheet name="ScoreF" sheetId="2" r:id="rId2"/>
     <sheet name="SFM" sheetId="4" r:id="rId3"/>
     <sheet name="SFF" sheetId="5" r:id="rId4"/>
-    <sheet name="ScoreMatrix" sheetId="3" r:id="rId5"/>
+    <sheet name="FM" sheetId="6" r:id="rId5"/>
+    <sheet name="FF" sheetId="7" r:id="rId6"/>
+    <sheet name="ScoreMatrix" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>Team</t>
   </si>
@@ -159,6 +161,12 @@
   </si>
   <si>
     <t>Clean and Jerk</t>
+  </si>
+  <si>
+    <t>First Stage Points</t>
+  </si>
+  <si>
+    <t>Semi Final Points</t>
   </si>
 </sst>
 </file>
@@ -519,7 +527,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,200 +1676,234 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>75</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>78</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>78</v>
-      </c>
-      <c r="C3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>80</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>66</v>
-      </c>
-      <c r="C5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>52</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>77</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
         <v>66</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>59</v>
-      </c>
-      <c r="C3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>72</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>78</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>55</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
         <v>69</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>70</v>
-      </c>
-      <c r="C8">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1870,11 +1912,93 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194F9D7B-FF40-4CA2-9BCD-9EF4497138EF}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D7A0B0-DC45-4A2F-A461-9AA66BC99F43}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE0349A-1D2A-4BA4-9394-3B33A3DE0436}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C413B0E3-4026-4CC0-A112-73DF84538092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FFCFA-F727-4867-94C2-13BF804C3105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="3" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="5" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>Team</t>
   </si>
@@ -166,7 +166,7 @@
     <t>First Stage Points</t>
   </si>
   <si>
-    <t>Semi Final Points</t>
+    <t>Workout 6 Points</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1679,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,15 +1913,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194F9D7B-FF40-4CA2-9BCD-9EF4497138EF}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -1947,6 +1947,66 @@
         <v>23</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1954,15 +2014,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D7A0B0-DC45-4A2F-A461-9AA66BC99F43}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -1986,6 +2046,66 @@
       </c>
       <c r="F1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FFCFA-F727-4867-94C2-13BF804C3105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA3E8BE-50C8-4C7A-924C-B1F32A4FE450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="5" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="4" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>Team</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>Workout 6 Points</t>
+  </si>
+  <si>
+    <t>Minute</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Rep</t>
   </si>
 </sst>
 </file>
@@ -1915,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194F9D7B-FF40-4CA2-9BCD-9EF4497138EF}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,13 +1947,13 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2016,8 +2025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D7A0B0-DC45-4A2F-A461-9AA66BC99F43}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,13 +2048,13 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA3E8BE-50C8-4C7A-924C-B1F32A4FE450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1BE5AA-485C-4A50-8BBE-06819F7CD0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="4" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Team</t>
   </si>
@@ -535,17 +535,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,60 +598,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H2">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="K2">
-        <v>204</v>
-      </c>
-      <c r="L2">
-        <v>16</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>115</v>
-      </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -659,158 +641,104 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>39</v>
       </c>
       <c r="H3">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K3">
-        <v>218</v>
-      </c>
-      <c r="L3">
-        <v>16</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>116</v>
-      </c>
-      <c r="O3">
-        <v>13</v>
-      </c>
-      <c r="P3">
-        <v>36</v>
-      </c>
-      <c r="Q3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>52</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>856</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>76</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>300</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>208</v>
-      </c>
-      <c r="L4">
-        <v>16</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>102</v>
-      </c>
-      <c r="O4">
-        <v>14</v>
-      </c>
-      <c r="P4">
-        <v>38</v>
-      </c>
-      <c r="Q4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>119</v>
-      </c>
-      <c r="F5">
-        <v>14</v>
-      </c>
       <c r="G5">
-        <v>36</v>
+        <v>35.1</v>
       </c>
       <c r="H5">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>190</v>
-      </c>
-      <c r="L5">
-        <v>16</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>110</v>
-      </c>
-      <c r="O5">
-        <v>14</v>
-      </c>
-      <c r="P5">
-        <v>14</v>
-      </c>
-      <c r="Q5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -818,52 +746,34 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>253</v>
+        <v>856</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>187</v>
-      </c>
-      <c r="L6">
-        <v>16</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>94</v>
-      </c>
-      <c r="O6">
-        <v>15</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -871,52 +781,34 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>856</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
         <v>13</v>
       </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>300</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>185</v>
-      </c>
-      <c r="L7">
-        <v>16</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>118</v>
-      </c>
-      <c r="O7">
-        <v>15</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -924,52 +816,34 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H8">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>205</v>
-      </c>
-      <c r="L8">
-        <v>16</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>100</v>
-      </c>
-      <c r="O8">
-        <v>13</v>
-      </c>
-      <c r="P8">
-        <v>27</v>
-      </c>
-      <c r="Q8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -977,105 +851,69 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="H9">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>224</v>
-      </c>
-      <c r="L9">
-        <v>16</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>116</v>
-      </c>
-      <c r="O9">
-        <v>14</v>
-      </c>
-      <c r="P9">
-        <v>23</v>
-      </c>
-      <c r="Q9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>217</v>
-      </c>
-      <c r="L10">
-        <v>16</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>75</v>
-      </c>
-      <c r="O10">
-        <v>15</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1083,49 +921,31 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>210</v>
-      </c>
-      <c r="L11">
-        <v>16</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>110</v>
-      </c>
-      <c r="O11">
-        <v>13</v>
-      </c>
-      <c r="P11">
-        <v>49</v>
-      </c>
-      <c r="Q11">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1139,16 +959,16 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,60 +1021,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>16</v>
-      </c>
       <c r="D2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H2">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K2">
-        <v>181</v>
-      </c>
-      <c r="L2">
-        <v>11</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>12</v>
-      </c>
-      <c r="P2">
-        <v>14</v>
-      </c>
-      <c r="Q2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1262,105 +1064,69 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>293</v>
+        <v>856</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>183</v>
-      </c>
-      <c r="L3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>76</v>
-      </c>
-      <c r="O3">
-        <v>14</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>82</v>
-      </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
       <c r="G4">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="H4">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>215</v>
-      </c>
-      <c r="L4">
-        <v>11</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>92</v>
-      </c>
-      <c r="O4">
-        <v>15</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1368,52 +1134,34 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H5">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>214</v>
-      </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>83</v>
-      </c>
-      <c r="O5">
-        <v>13</v>
-      </c>
-      <c r="P5">
-        <v>6</v>
-      </c>
-      <c r="Q5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1421,52 +1169,34 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H6">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>182</v>
-      </c>
-      <c r="L6">
-        <v>11</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>75</v>
-      </c>
-      <c r="O6">
-        <v>14</v>
-      </c>
-      <c r="P6">
-        <v>46</v>
-      </c>
-      <c r="Q6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1474,52 +1204,34 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>223</v>
-      </c>
-      <c r="L7">
-        <v>11</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>93</v>
-      </c>
-      <c r="O7">
-        <v>13</v>
-      </c>
-      <c r="P7">
-        <v>49</v>
-      </c>
-      <c r="Q7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1527,52 +1239,34 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H8">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>188</v>
-      </c>
-      <c r="L8">
-        <v>11</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>81</v>
-      </c>
-      <c r="O8">
-        <v>12</v>
-      </c>
-      <c r="P8">
-        <v>14</v>
-      </c>
-      <c r="Q8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1580,52 +1274,34 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E9">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>186</v>
-      </c>
-      <c r="L9">
-        <v>11</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>85</v>
-      </c>
-      <c r="O9">
-        <v>15</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1633,49 +1309,31 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H10">
-        <v>300</v>
+        <v>856</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>189</v>
-      </c>
-      <c r="L10">
-        <v>11</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>104</v>
-      </c>
-      <c r="O10">
-        <v>12</v>
-      </c>
-      <c r="P10">
-        <v>27</v>
-      </c>
-      <c r="Q10">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1685,20 +1343,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1710,90 +1368,6 @@
       </c>
       <c r="D1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>75</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>78</v>
-      </c>
-      <c r="D3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>66</v>
-      </c>
-      <c r="D5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>52</v>
-      </c>
-      <c r="D6">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>77</v>
-      </c>
-      <c r="D7">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1804,20 +1378,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1829,90 +1403,6 @@
       </c>
       <c r="D1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>66</v>
-      </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>59</v>
-      </c>
-      <c r="D3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>72</v>
-      </c>
-      <c r="D4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>78</v>
-      </c>
-      <c r="D5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>69</v>
-      </c>
-      <c r="D7">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1922,21 +1412,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194F9D7B-FF40-4CA2-9BCD-9EF4497138EF}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1954,66 +1444,6 @@
       </c>
       <c r="F1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2023,21 +1453,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D7A0B0-DC45-4A2F-A461-9AA66BC99F43}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2055,66 +1485,6 @@
       </c>
       <c r="F1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2130,9 +1500,9 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -2140,7 +1510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2148,7 +1518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2156,7 +1526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2164,7 +1534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2172,7 +1542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2180,7 +1550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2188,7 +1558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2196,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2204,7 +1574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2212,7 +1582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1BE5AA-485C-4A50-8BBE-06819F7CD0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EA9E9F-23E2-4C28-BCC3-F0EA8841C10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1117,7 @@
         <v>856</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>24</v>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EA9E9F-23E2-4C28-BCC3-F0EA8841C10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D348E1E-4F75-4548-A35C-B7EAD5D4A01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D348E1E-4F75-4548-A35C-B7EAD5D4A01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD4A4B-6340-4BE3-B259-3BB7939C3600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="H2">
         <v>856</v>
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="G5">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>856</v>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,6 +1055,15 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>37</v>
+      </c>
+      <c r="M2">
+        <v>38</v>
+      </c>
+      <c r="N2">
+        <v>10000</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1090,6 +1099,15 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>43</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1125,6 +1143,15 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>41</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>10000</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1160,6 +1187,15 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="L5">
+        <v>38</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>10000</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1195,6 +1231,15 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>39</v>
+      </c>
+      <c r="M6">
+        <v>45</v>
+      </c>
+      <c r="N6">
+        <v>10000</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1230,6 +1275,15 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>40</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>10000</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1265,6 +1319,15 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>38</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>10000</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1300,6 +1363,15 @@
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>38</v>
+      </c>
+      <c r="M9">
+        <v>47</v>
+      </c>
+      <c r="N9">
+        <v>10000</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1334,6 +1406,15 @@
       </c>
       <c r="K10">
         <v>1</v>
+      </c>
+      <c r="L10">
+        <v>37</v>
+      </c>
+      <c r="M10">
+        <v>42</v>
+      </c>
+      <c r="N10">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1496,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CD4A4B-6340-4BE3-B259-3BB7939C3600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D121275-2FC8-461B-BFE8-C726221FF666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,6 +632,15 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>35</v>
+      </c>
+      <c r="M2">
+        <v>31</v>
+      </c>
+      <c r="N2">
+        <v>10000</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -667,6 +676,15 @@
       <c r="K3">
         <v>1</v>
       </c>
+      <c r="L3">
+        <v>36</v>
+      </c>
+      <c r="M3">
+        <v>29</v>
+      </c>
+      <c r="N3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -702,6 +720,15 @@
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>10000</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -736,6 +763,15 @@
       </c>
       <c r="K5">
         <v>1</v>
+      </c>
+      <c r="L5">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>57</v>
+      </c>
+      <c r="N5">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -772,6 +808,15 @@
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>32</v>
+      </c>
+      <c r="M6">
+        <v>41</v>
+      </c>
+      <c r="N6">
+        <v>10000</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -807,6 +852,15 @@
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>32</v>
+      </c>
+      <c r="M7">
+        <v>38</v>
+      </c>
+      <c r="N7">
+        <v>10000</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -842,6 +896,15 @@
       <c r="K8">
         <v>1</v>
       </c>
+      <c r="L8">
+        <v>33</v>
+      </c>
+      <c r="M8">
+        <v>33</v>
+      </c>
+      <c r="N8">
+        <v>10000</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -877,6 +940,15 @@
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>34</v>
+      </c>
+      <c r="M9">
+        <v>31</v>
+      </c>
+      <c r="N9">
+        <v>10000</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -912,6 +984,15 @@
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>33</v>
+      </c>
+      <c r="M10">
+        <v>25</v>
+      </c>
+      <c r="N10">
+        <v>10000</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -946,6 +1027,15 @@
       </c>
       <c r="K11">
         <v>1</v>
+      </c>
+      <c r="L11">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D121275-2FC8-461B-BFE8-C726221FF666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D72C1B4-A6B5-4530-83E3-9F61C89B3432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1154,6 +1154,15 @@
       <c r="N2">
         <v>10000</v>
       </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>208</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1198,6 +1207,15 @@
       <c r="N3">
         <v>10000</v>
       </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>121</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1242,6 +1260,15 @@
       <c r="N4">
         <v>10000</v>
       </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1286,6 +1313,15 @@
       <c r="N5">
         <v>10000</v>
       </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>163</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1330,6 +1366,15 @@
       <c r="N6">
         <v>10000</v>
       </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>179</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1374,6 +1419,15 @@
       <c r="N7">
         <v>10000</v>
       </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>152</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1418,6 +1472,15 @@
       <c r="N8">
         <v>10000</v>
       </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>197</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1462,6 +1525,15 @@
       <c r="N9">
         <v>10000</v>
       </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>248</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1505,6 +1577,15 @@
       </c>
       <c r="N10">
         <v>10000</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D72C1B4-A6B5-4530-83E3-9F61C89B3432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF480333-F59F-4EAA-8239-19CE9761BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,6 +641,15 @@
       <c r="N2">
         <v>10000</v>
       </c>
+      <c r="O2">
+        <v>8</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>180</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -685,6 +694,15 @@
       <c r="N3">
         <v>10000</v>
       </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>220</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -729,6 +747,15 @@
       <c r="N4">
         <v>10000</v>
       </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>144</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -772,6 +799,15 @@
       </c>
       <c r="N5">
         <v>10000</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -817,6 +853,15 @@
       <c r="N6">
         <v>10000</v>
       </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>238</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -861,6 +906,15 @@
       <c r="N7">
         <v>10000</v>
       </c>
+      <c r="O7">
+        <v>8</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -905,6 +959,15 @@
       <c r="N8">
         <v>10000</v>
       </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -948,6 +1011,15 @@
       </c>
       <c r="N9">
         <v>10000</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -993,6 +1065,15 @@
       <c r="N10">
         <v>10000</v>
       </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>238</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1036,6 +1117,15 @@
       </c>
       <c r="N11">
         <v>10000</v>
+      </c>
+      <c r="O11">
+        <v>8</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF480333-F59F-4EAA-8239-19CE9761BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04751747-18A0-4D07-9D34-541591545C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Team</t>
   </si>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1712,6 +1712,54 @@
         <v>39</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1720,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,6 +1793,54 @@
       </c>
       <c r="D1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04751747-18A0-4D07-9D34-541591545C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538B8C0B-BD86-4FC4-8B86-89EC877DAA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="3" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1688,7 +1688,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C2" sqref="C2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1719,6 +1719,12 @@
       <c r="B2">
         <v>8</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1726,6 +1732,12 @@
       </c>
       <c r="B3">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1735,6 +1747,12 @@
       <c r="B4">
         <v>9</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1742,6 +1760,12 @@
       </c>
       <c r="B5">
         <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1751,6 +1775,12 @@
       <c r="B6">
         <v>9</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1758,6 +1788,12 @@
       </c>
       <c r="B7">
         <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1770,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1802,6 +1838,12 @@
       <c r="B2">
         <v>7</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1810,6 +1852,12 @@
       <c r="B3">
         <v>7</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1818,6 +1866,12 @@
       <c r="B4">
         <v>8</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1826,6 +1880,12 @@
       <c r="B5">
         <v>9</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1834,6 +1894,12 @@
       <c r="B6">
         <v>11</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1841,6 +1907,12 @@
       </c>
       <c r="B7">
         <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538B8C0B-BD86-4FC4-8B86-89EC877DAA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F76440-AC86-4366-90DF-818E30D5336B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="3" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -1688,7 +1688,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,7 +1807,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1839,10 +1839,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1853,10 +1853,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1867,10 +1867,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1881,10 +1881,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1895,10 +1895,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1909,10 +1909,10 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F76440-AC86-4366-90DF-818E30D5336B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C379F39-B5D6-42CC-9511-496C1E13EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="3" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="2" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1720,10 +1720,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1734,10 +1734,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1748,10 +1748,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1762,10 +1762,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>92.5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1790,10 +1790,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1806,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C379F39-B5D6-42CC-9511-496C1E13EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ED7754-F77E-4DBB-943A-64FA3B7833C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="2" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="5" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>Team</t>
   </si>
@@ -1687,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,7 +1807,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A7" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1922,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194F9D7B-FF40-4CA2-9BCD-9EF4497138EF}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1956,6 +1956,66 @@
         <v>44</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1963,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D7A0B0-DC45-4A2F-A461-9AA66BC99F43}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1995,6 +2055,66 @@
       </c>
       <c r="F1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>46</v>
+      </c>
+      <c r="F3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ED7754-F77E-4DBB-943A-64FA3B7833C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C07306-51FC-44B2-95B9-77DEC53A2249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="5" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="4" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -1924,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194F9D7B-FF40-4CA2-9BCD-9EF4497138EF}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1967,13 +1967,13 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1987,13 +1987,13 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2007,13 +2007,13 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2025,7 +2025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D7A0B0-DC45-4A2F-A461-9AA66BC99F43}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\2022 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503B6D54-415B-446C-BA27-40C1AC3A22D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A6B1E3-910D-4D6F-B7F5-8B7A67188D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="3" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
   <si>
     <t>Team</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Gøril og Cecilie</t>
   </si>
   <si>
-    <t>Muscles &amp; Brains</t>
-  </si>
-  <si>
     <t>Elise og Kamilla</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>Underlegen og Overlegen</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1000,7 +1000,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1035,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1105,7 +1105,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1385,7 +1385,7 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1566,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -1795,7 +1795,7 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
         <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1897,10 +1897,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
         <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
         <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
         <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
         <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
         <v>78</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
         <v>80</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
         <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
         <v>84</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
         <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
         <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -2317,10 +2317,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
         <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
         <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
         <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
         <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
       </c>
       <c r="D25">
         <v>7</v>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -2497,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2542,210 +2542,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>81</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>18</v>
-      </c>
-      <c r="I2">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>111</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>91</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>44</v>
-      </c>
-      <c r="I4">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>105</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>19</v>
-      </c>
-      <c r="I5">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>101</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>34</v>
-      </c>
-      <c r="I6">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>76</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>37</v>
-      </c>
-      <c r="I7">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>114</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>33</v>
-      </c>
-      <c r="I8">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>76</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>55</v>
-      </c>
-      <c r="I9">
-        <v>380</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2756,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2783,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2806,210 +2606,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>98</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>121</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>81</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>103</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>101</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>101</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>111</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>23</v>
-      </c>
-      <c r="I8">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>86</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>380</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3151,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3216,7 +2816,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\2022 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A6B1E3-910D-4D6F-B7F5-8B7A67188D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA94E5E6-40E8-4080-B408-DCA967CAC4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="3" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="2" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
   <si>
     <t>Team</t>
   </si>
@@ -229,6 +229,9 @@
     <t>Gøril og Cecilie</t>
   </si>
   <si>
+    <t>Muscles &amp; Brains</t>
+  </si>
+  <si>
     <t>Elise og Kamilla</t>
   </si>
   <si>
@@ -365,9 +368,6 @@
   </si>
   <si>
     <t>Underlegen og Overlegen</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -1000,7 +1000,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1035,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -1105,7 +1105,7 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1385,7 +1385,7 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1567,7 +1567,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:L26"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -1795,7 +1795,7 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1897,10 +1897,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -1932,10 +1932,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -2002,10 +2002,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -2212,10 +2212,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -2317,10 +2317,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -2352,10 +2352,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -2422,10 +2422,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D25">
         <v>7</v>
@@ -2457,10 +2457,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -2497,10 +2497,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2542,10 +2542,234 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>860</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>823</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>56</v>
+      </c>
+      <c r="F4">
+        <v>860</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>108</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>860</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>860</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>860</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>860</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>860</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2556,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2583,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2606,10 +2830,234 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2">
+        <v>860</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>860</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>858</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>860</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>860</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>811</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>834</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>844</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2751,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2816,7 +3264,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\2022 Halloween games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2022 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B80D890-E40C-4DF0-A8A0-87564180B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B7FFEB-C68F-4F08-B4F9-39707AE343B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,6 +799,15 @@
       <c r="B2" t="s">
         <v>99</v>
       </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>352</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -807,6 +816,15 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>350</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -815,6 +833,15 @@
       <c r="B4" t="s">
         <v>36</v>
       </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>331</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -823,6 +850,15 @@
       <c r="B5" t="s">
         <v>20</v>
       </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>380</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -831,6 +867,15 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>380</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -839,6 +884,15 @@
       <c r="B7" t="s">
         <v>30</v>
       </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>380</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -847,6 +901,15 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>49</v>
+      </c>
+      <c r="F8">
+        <v>380</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -855,6 +918,15 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>380</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -863,6 +935,15 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>380</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -871,6 +952,15 @@
       <c r="B11" t="s">
         <v>100</v>
       </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>380</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -879,6 +969,15 @@
       <c r="B12" t="s">
         <v>45</v>
       </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>43</v>
+      </c>
+      <c r="F12">
+        <v>380</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -887,6 +986,15 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>355</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -895,6 +1003,15 @@
       <c r="B14" t="s">
         <v>51</v>
       </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>56</v>
+      </c>
+      <c r="F14">
+        <v>380</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -903,6 +1020,15 @@
       <c r="B15" t="s">
         <v>40</v>
       </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>58</v>
+      </c>
+      <c r="F15">
+        <v>380</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -911,61 +1037,133 @@
       <c r="B16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>33</v>
+      </c>
+      <c r="F21">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>59</v>
+      </c>
+      <c r="F23">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -982,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2022 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B7FFEB-C68F-4F08-B4F9-39707AE343B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B133D-59AA-4A08-BC32-558A511DFA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -313,9 +313,6 @@
     <t>Hulda og Kristiane</t>
   </si>
   <si>
-    <t>Sofies Disipler</t>
-  </si>
-  <si>
     <t>Sunniva og Vrinda</t>
   </si>
   <si>
@@ -368,6 +365,9 @@
   </si>
   <si>
     <t>Alina og Benedicte</t>
+  </si>
+  <si>
+    <t>In it for the party!</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -950,7 +950,7 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1035,7 +1035,7 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -1086,7 +1086,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -1137,7 +1137,7 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1236,6 +1236,15 @@
       <c r="B2" t="s">
         <v>69</v>
       </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>380</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1244,6 +1253,15 @@
       <c r="B3" t="s">
         <v>65</v>
       </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>380</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1252,6 +1270,15 @@
       <c r="B4" t="s">
         <v>75</v>
       </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>380</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1260,6 +1287,15 @@
       <c r="B5" t="s">
         <v>80</v>
       </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>380</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1268,6 +1304,15 @@
       <c r="B6" t="s">
         <v>82</v>
       </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>380</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1276,6 +1321,15 @@
       <c r="B7" t="s">
         <v>67</v>
       </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>380</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1284,29 +1338,65 @@
       <c r="B8" t="s">
         <v>53</v>
       </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>380</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
         <v>93</v>
       </c>
-      <c r="B10" t="s">
-        <v>94</v>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1316,13 +1406,31 @@
       <c r="B12" t="s">
         <v>78</v>
       </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>380</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1332,6 +1440,15 @@
       <c r="B14" t="s">
         <v>63</v>
       </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>355</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1340,93 +1457,201 @@
       <c r="B15" t="s">
         <v>88</v>
       </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>380</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>52</v>
+      </c>
+      <c r="F17">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>85</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>72</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>27</v>
+      </c>
+      <c r="F21">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>83</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
         <v>91</v>
       </c>
-      <c r="B26" t="s">
-        <v>92</v>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>36</v>
+      </c>
+      <c r="F26">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1484,10 +1709,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1525,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1548,10 +1773,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1693,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1758,7 +1983,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2022 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623B133D-59AA-4A08-BC32-558A511DFA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5832BFDB-5D11-4308-A798-69C17C04900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -735,7 +735,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,6 +808,15 @@
       <c r="F2">
         <v>352</v>
       </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>174</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -825,6 +834,15 @@
       <c r="F3">
         <v>350</v>
       </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>183</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -842,6 +860,15 @@
       <c r="F4">
         <v>331</v>
       </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>168</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -859,6 +886,15 @@
       <c r="F5">
         <v>380</v>
       </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>233</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -876,6 +912,15 @@
       <c r="F6">
         <v>380</v>
       </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>187</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -893,6 +938,15 @@
       <c r="F7">
         <v>380</v>
       </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>160</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -910,6 +964,15 @@
       <c r="F8">
         <v>380</v>
       </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>246</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -927,6 +990,15 @@
       <c r="F9">
         <v>380</v>
       </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>202</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -944,6 +1016,15 @@
       <c r="F10">
         <v>380</v>
       </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>209</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -961,6 +1042,15 @@
       <c r="F11">
         <v>380</v>
       </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>183</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -978,6 +1068,15 @@
       <c r="F12">
         <v>380</v>
       </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>246</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -995,6 +1094,15 @@
       <c r="F13">
         <v>355</v>
       </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>170</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1012,6 +1120,15 @@
       <c r="F14">
         <v>380</v>
       </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>223</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1029,6 +1146,15 @@
       <c r="F15">
         <v>380</v>
       </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>230</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1046,8 +1172,17 @@
       <c r="F16">
         <v>380</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1063,8 +1198,17 @@
       <c r="F17">
         <v>380</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1080,8 +1224,17 @@
       <c r="F18">
         <v>364</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1097,8 +1250,17 @@
       <c r="F19">
         <v>380</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1114,8 +1276,17 @@
       <c r="F20">
         <v>380</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1131,8 +1302,17 @@
       <c r="F21">
         <v>380</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1148,8 +1328,17 @@
       <c r="F22">
         <v>380</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1164,6 +1353,15 @@
       </c>
       <c r="F23">
         <v>380</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1379,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1245,6 +1443,15 @@
       <c r="F2">
         <v>380</v>
       </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>190</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1262,6 +1469,15 @@
       <c r="F3">
         <v>380</v>
       </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>183</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1279,6 +1495,15 @@
       <c r="F4">
         <v>380</v>
       </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>210</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1296,6 +1521,15 @@
       <c r="F5">
         <v>380</v>
       </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>207</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1313,6 +1547,15 @@
       <c r="F6">
         <v>380</v>
       </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>184</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1330,6 +1573,15 @@
       <c r="F7">
         <v>380</v>
       </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>214</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1347,6 +1599,15 @@
       <c r="F8">
         <v>380</v>
       </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>217</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1364,6 +1625,15 @@
       <c r="F9">
         <v>380</v>
       </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1381,6 +1651,15 @@
       <c r="F10">
         <v>380</v>
       </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>118</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1398,6 +1677,15 @@
       <c r="F11">
         <v>380</v>
       </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>189</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1415,6 +1703,15 @@
       <c r="F12">
         <v>380</v>
       </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>192</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1432,6 +1729,15 @@
       <c r="F13">
         <v>380</v>
       </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>155</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1449,6 +1755,15 @@
       <c r="F14">
         <v>355</v>
       </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>136</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1466,6 +1781,15 @@
       <c r="F15">
         <v>380</v>
       </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>162</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1483,8 +1807,17 @@
       <c r="F16">
         <v>380</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1500,8 +1833,17 @@
       <c r="F17">
         <v>380</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -1517,8 +1859,17 @@
       <c r="F18">
         <v>330</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1534,8 +1885,17 @@
       <c r="F19">
         <v>330</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -1551,8 +1911,17 @@
       <c r="F20">
         <v>380</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1568,8 +1937,17 @@
       <c r="F21">
         <v>380</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1585,8 +1963,17 @@
       <c r="F22">
         <v>380</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -1602,8 +1989,17 @@
       <c r="F23">
         <v>380</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1619,8 +2015,17 @@
       <c r="F24">
         <v>380</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1636,8 +2041,17 @@
       <c r="F25">
         <v>380</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -1652,6 +2066,15 @@
       </c>
       <c r="F26">
         <v>380</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2022 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5832BFDB-5D11-4308-A798-69C17C04900A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD608DE-EAEE-4DDA-A95F-855D459DC3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1883,7 +1883,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="G19">
         <v>10</v>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2022 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD608DE-EAEE-4DDA-A95F-855D459DC3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61121B5D-7681-4EBE-9FC7-F7925C7A5B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2022 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61121B5D-7681-4EBE-9FC7-F7925C7A5B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFB6A14-283D-4540-A286-A0FB8B2F728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,6 +817,15 @@
       <c r="I2">
         <v>174</v>
       </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>223</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -843,6 +852,15 @@
       <c r="I3">
         <v>183</v>
       </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>226</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -869,6 +887,15 @@
       <c r="I4">
         <v>168</v>
       </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>224</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -895,6 +922,15 @@
       <c r="I5">
         <v>233</v>
       </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>32</v>
+      </c>
+      <c r="L5">
+        <v>258</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -921,6 +957,15 @@
       <c r="I6">
         <v>187</v>
       </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>243</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -947,6 +992,15 @@
       <c r="I7">
         <v>160</v>
       </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>176</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -973,6 +1027,15 @@
       <c r="I8">
         <v>246</v>
       </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>49</v>
+      </c>
+      <c r="L8">
+        <v>258</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -999,6 +1062,15 @@
       <c r="I9">
         <v>202</v>
       </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>213</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1025,6 +1097,15 @@
       <c r="I10">
         <v>209</v>
       </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>47</v>
+      </c>
+      <c r="L10">
+        <v>258</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1051,6 +1132,15 @@
       <c r="I11">
         <v>183</v>
       </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>240</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1077,6 +1167,15 @@
       <c r="I12">
         <v>246</v>
       </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>258</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1103,6 +1202,15 @@
       <c r="I13">
         <v>170</v>
       </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>203</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1129,6 +1237,15 @@
       <c r="I14">
         <v>223</v>
       </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>55</v>
+      </c>
+      <c r="L14">
+        <v>258</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1155,6 +1272,15 @@
       <c r="I15">
         <v>230</v>
       </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>258</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1181,8 +1307,17 @@
       <c r="I16">
         <v>203</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+      <c r="L16">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1207,8 +1342,17 @@
       <c r="I17">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>21</v>
+      </c>
+      <c r="L17">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1233,8 +1377,17 @@
       <c r="I18">
         <v>159</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1259,8 +1412,17 @@
       <c r="I19">
         <v>240</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1285,8 +1447,17 @@
       <c r="I20">
         <v>232</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>31</v>
+      </c>
+      <c r="L20">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1311,8 +1482,17 @@
       <c r="I21">
         <v>233</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>49</v>
+      </c>
+      <c r="L21">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1337,8 +1517,17 @@
       <c r="I22">
         <v>223</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>23</v>
+      </c>
+      <c r="L22">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1362,6 +1551,15 @@
       </c>
       <c r="I23">
         <v>168</v>
+      </c>
+      <c r="J23">
+        <v>13</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1378,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2022 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFB6A14-283D-4540-A286-A0FB8B2F728E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87010F8-1B32-40AE-9926-6CFE98CD1E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>Team</t>
   </si>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="A2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1650,6 +1650,15 @@
       <c r="I2">
         <v>190</v>
       </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>232</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1676,6 +1685,15 @@
       <c r="I3">
         <v>183</v>
       </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>238</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1702,6 +1720,15 @@
       <c r="I4">
         <v>210</v>
       </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>26</v>
+      </c>
+      <c r="L4">
+        <v>258</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1728,6 +1755,15 @@
       <c r="I5">
         <v>207</v>
       </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <v>258</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1754,6 +1790,15 @@
       <c r="I6">
         <v>184</v>
       </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>34</v>
+      </c>
+      <c r="L6">
+        <v>258</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1780,6 +1825,15 @@
       <c r="I7">
         <v>214</v>
       </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>47</v>
+      </c>
+      <c r="L7">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1806,6 +1860,15 @@
       <c r="I8">
         <v>217</v>
       </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <v>258</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1832,6 +1895,15 @@
       <c r="I9">
         <v>167</v>
       </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>237</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1858,6 +1930,15 @@
       <c r="I10">
         <v>118</v>
       </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>157</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1884,6 +1965,15 @@
       <c r="I11">
         <v>189</v>
       </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>47</v>
+      </c>
+      <c r="L11">
+        <v>258</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1910,6 +2000,15 @@
       <c r="I12">
         <v>192</v>
       </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>56</v>
+      </c>
+      <c r="L12">
+        <v>258</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1936,6 +2035,15 @@
       <c r="I13">
         <v>155</v>
       </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>237</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1962,6 +2070,15 @@
       <c r="I14">
         <v>136</v>
       </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1988,6 +2105,15 @@
       <c r="I15">
         <v>162</v>
       </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>216</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2014,8 +2140,17 @@
       <c r="I16">
         <v>184</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>29</v>
+      </c>
+      <c r="L16">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -2040,8 +2175,17 @@
       <c r="I17">
         <v>161</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>89</v>
       </c>
@@ -2066,8 +2210,17 @@
       <c r="I18">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2092,8 +2245,17 @@
       <c r="I19">
         <v>243</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -2118,8 +2280,17 @@
       <c r="I20">
         <v>205</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>21</v>
+      </c>
+      <c r="L20">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -2144,8 +2315,17 @@
       <c r="I21">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>33</v>
+      </c>
+      <c r="L21">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2170,8 +2350,17 @@
       <c r="I22">
         <v>159</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -2196,8 +2385,17 @@
       <c r="I23">
         <v>184</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>36</v>
+      </c>
+      <c r="L23">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2222,8 +2420,17 @@
       <c r="I24">
         <v>178</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <v>43</v>
+      </c>
+      <c r="L24">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2248,8 +2455,17 @@
       <c r="I25">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>13</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -2273,6 +2489,15 @@
       </c>
       <c r="I26">
         <v>166</v>
+      </c>
+      <c r="J26">
+        <v>13</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2285,18 +2510,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2330,10 +2560,90 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2022 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87010F8-1B32-40AE-9926-6CFE98CD1E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89B3236-37CF-4CD0-98B3-C4F24F36DFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="108">
   <si>
     <t>Team</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>Underlegen og Overlegen</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
   <si>
     <t>Rabdotøsene</t>
@@ -1576,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,10 +2009,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -2190,7 +2187,7 @@
         <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -2513,7 +2510,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2568,6 +2565,24 @@
       <c r="C2">
         <v>20</v>
       </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>46</v>
+      </c>
+      <c r="F2">
+        <v>880</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>210</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2579,6 +2594,24 @@
       <c r="C3">
         <v>18</v>
       </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>880</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>202.5</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2590,6 +2623,24 @@
       <c r="C4">
         <v>16</v>
       </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>880</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>190</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2601,6 +2652,24 @@
       <c r="C5">
         <v>14</v>
       </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>880</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>215</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2612,6 +2681,24 @@
       <c r="C6">
         <v>12</v>
       </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>880</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>210</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2623,6 +2710,24 @@
       <c r="C7">
         <v>10</v>
       </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>858</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>175</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2634,6 +2739,24 @@
       <c r="C8">
         <v>8</v>
       </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>880</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>190</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2644,6 +2767,24 @@
       </c>
       <c r="C9">
         <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>880</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2654,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BC86D7-F20F-4154-A61E-B81945F8DD0F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2704,11 +2845,238 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>880</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>59</v>
+      </c>
+      <c r="F3">
+        <v>880</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>880</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>880</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>157.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>866</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>880</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>867</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>880</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2938,7 +3306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE0349A-1D2A-4BA4-9394-3B33A3DE0436}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A5FFF4-A642-452E-82C8-3F09A3BD6B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF1A81C-6890-4C68-9991-B7290F977164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8928" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,6 +612,43 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>258</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>36</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <f>SUM(H2:M2)</f>
+        <v>136</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -620,6 +657,43 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>266</v>
+      </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+      <c r="L3">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <v>36</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N21" si="0">SUM(H3:M3)</f>
+        <v>179</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -628,6 +702,43 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>34</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -636,6 +747,43 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>33</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -644,6 +792,43 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -652,6 +837,43 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -660,6 +882,43 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>49</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>36</v>
+      </c>
+      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -668,6 +927,43 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>39</v>
+      </c>
+      <c r="I9">
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <v>27</v>
+      </c>
+      <c r="K9">
+        <v>33</v>
+      </c>
+      <c r="L9">
+        <v>21</v>
+      </c>
+      <c r="M9">
+        <v>19</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -676,6 +972,43 @@
       <c r="B10" t="s">
         <v>21</v>
       </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>27</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -684,6 +1017,43 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>31</v>
+      </c>
+      <c r="J11">
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>34</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -692,6 +1062,43 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>27</v>
+      </c>
+      <c r="J12">
+        <v>23</v>
+      </c>
+      <c r="K12">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>24</v>
+      </c>
+      <c r="M12">
+        <v>31</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -700,6 +1107,43 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <v>29</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -708,6 +1152,43 @@
       <c r="B14" t="s">
         <v>25</v>
       </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>36</v>
+      </c>
+      <c r="I14">
+        <v>31</v>
+      </c>
+      <c r="J14">
+        <v>21</v>
+      </c>
+      <c r="K14">
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>18</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -716,6 +1197,43 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <v>29</v>
+      </c>
+      <c r="J15">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -724,45 +1242,267 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>21</v>
+      </c>
+      <c r="K16">
+        <v>37</v>
+      </c>
+      <c r="L16">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>29</v>
+      </c>
+      <c r="J17">
+        <v>27</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>28</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>29</v>
+      </c>
+      <c r="K18">
+        <v>39</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>13</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>27</v>
+      </c>
+      <c r="M19">
+        <v>39</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>29</v>
+      </c>
+      <c r="K20">
+        <v>32</v>
+      </c>
+      <c r="L20">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>34</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>44</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>21</v>
+      </c>
+      <c r="I21">
+        <v>32</v>
+      </c>
+      <c r="J21">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>28</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>17</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF1A81C-6890-4C68-9991-B7290F977164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C11DD8-D189-48F6-998E-FBE9C6290B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8928" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,43 +612,6 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>258</v>
-      </c>
-      <c r="F2">
-        <v>44</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>32</v>
-      </c>
-      <c r="I2">
-        <v>28</v>
-      </c>
-      <c r="J2">
-        <v>36</v>
-      </c>
-      <c r="K2">
-        <v>15</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>15</v>
-      </c>
-      <c r="N2">
-        <f>SUM(H2:M2)</f>
-        <v>136</v>
-      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -657,43 +620,6 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>266</v>
-      </c>
-      <c r="F3">
-        <v>44</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <v>37</v>
-      </c>
-      <c r="J3">
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <v>16</v>
-      </c>
-      <c r="L3">
-        <v>31</v>
-      </c>
-      <c r="M3">
-        <v>36</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N21" si="0">SUM(H3:M3)</f>
-        <v>179</v>
-      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -702,43 +628,6 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>300</v>
-      </c>
-      <c r="F4">
-        <v>44</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>34</v>
-      </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -747,43 +636,6 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>300</v>
-      </c>
-      <c r="F5">
-        <v>44</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>31</v>
-      </c>
-      <c r="J5">
-        <v>32</v>
-      </c>
-      <c r="K5">
-        <v>15</v>
-      </c>
-      <c r="L5">
-        <v>33</v>
-      </c>
-      <c r="M5">
-        <v>16</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>151</v>
-      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -792,43 +644,6 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>47</v>
-      </c>
-      <c r="E6">
-        <v>300</v>
-      </c>
-      <c r="F6">
-        <v>44</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>34</v>
-      </c>
-      <c r="I6">
-        <v>25</v>
-      </c>
-      <c r="J6">
-        <v>30</v>
-      </c>
-      <c r="K6">
-        <v>13</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -837,43 +652,6 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>43</v>
-      </c>
-      <c r="E7">
-        <v>300</v>
-      </c>
-      <c r="F7">
-        <v>44</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>16</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <v>35</v>
-      </c>
-      <c r="L7">
-        <v>26</v>
-      </c>
-      <c r="M7">
-        <v>11</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -882,43 +660,6 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>49</v>
-      </c>
-      <c r="E8">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>44</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>36</v>
-      </c>
-      <c r="J8">
-        <v>22</v>
-      </c>
-      <c r="K8">
-        <v>21</v>
-      </c>
-      <c r="L8">
-        <v>25</v>
-      </c>
-      <c r="M8">
-        <v>17</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -927,43 +668,6 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>42</v>
-      </c>
-      <c r="E9">
-        <v>300</v>
-      </c>
-      <c r="F9">
-        <v>44</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>39</v>
-      </c>
-      <c r="I9">
-        <v>27</v>
-      </c>
-      <c r="J9">
-        <v>27</v>
-      </c>
-      <c r="K9">
-        <v>33</v>
-      </c>
-      <c r="L9">
-        <v>21</v>
-      </c>
-      <c r="M9">
-        <v>19</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>166</v>
-      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -972,43 +676,6 @@
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>45</v>
-      </c>
-      <c r="E10">
-        <v>300</v>
-      </c>
-      <c r="F10">
-        <v>44</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>24</v>
-      </c>
-      <c r="I10">
-        <v>27</v>
-      </c>
-      <c r="J10">
-        <v>38</v>
-      </c>
-      <c r="K10">
-        <v>38</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
-      <c r="M10">
-        <v>11</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1017,43 +684,6 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>300</v>
-      </c>
-      <c r="F11">
-        <v>44</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>13</v>
-      </c>
-      <c r="I11">
-        <v>31</v>
-      </c>
-      <c r="J11">
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <v>17</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="M11">
-        <v>34</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1062,43 +692,6 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>43</v>
-      </c>
-      <c r="E12">
-        <v>300</v>
-      </c>
-      <c r="F12">
-        <v>44</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>37</v>
-      </c>
-      <c r="I12">
-        <v>27</v>
-      </c>
-      <c r="J12">
-        <v>23</v>
-      </c>
-      <c r="K12">
-        <v>23</v>
-      </c>
-      <c r="L12">
-        <v>24</v>
-      </c>
-      <c r="M12">
-        <v>31</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1107,43 +700,6 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>300</v>
-      </c>
-      <c r="F13">
-        <v>44</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-      <c r="I13">
-        <v>37</v>
-      </c>
-      <c r="J13">
-        <v>26</v>
-      </c>
-      <c r="K13">
-        <v>25</v>
-      </c>
-      <c r="L13">
-        <v>29</v>
-      </c>
-      <c r="M13">
-        <v>29</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>166</v>
-      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1152,43 +708,6 @@
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>56</v>
-      </c>
-      <c r="E14">
-        <v>300</v>
-      </c>
-      <c r="F14">
-        <v>44</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>36</v>
-      </c>
-      <c r="I14">
-        <v>31</v>
-      </c>
-      <c r="J14">
-        <v>21</v>
-      </c>
-      <c r="K14">
-        <v>38</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14">
-        <v>18</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>154</v>
-      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1197,43 +716,6 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>58</v>
-      </c>
-      <c r="E15">
-        <v>300</v>
-      </c>
-      <c r="F15">
-        <v>44</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>25</v>
-      </c>
-      <c r="I15">
-        <v>29</v>
-      </c>
-      <c r="J15">
-        <v>31</v>
-      </c>
-      <c r="K15">
-        <v>14</v>
-      </c>
-      <c r="L15">
-        <v>15</v>
-      </c>
-      <c r="M15">
-        <v>20</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1242,267 +724,45 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>42</v>
-      </c>
-      <c r="E16">
-        <v>300</v>
-      </c>
-      <c r="F16">
-        <v>44</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>38</v>
-      </c>
-      <c r="I16">
-        <v>12</v>
-      </c>
-      <c r="J16">
-        <v>21</v>
-      </c>
-      <c r="K16">
-        <v>37</v>
-      </c>
-      <c r="L16">
-        <v>39</v>
-      </c>
-      <c r="M16">
-        <v>28</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>38</v>
-      </c>
-      <c r="E17">
-        <v>300</v>
-      </c>
-      <c r="F17">
-        <v>44</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>32</v>
-      </c>
-      <c r="I17">
-        <v>29</v>
-      </c>
-      <c r="J17">
-        <v>27</v>
-      </c>
-      <c r="K17">
-        <v>15</v>
-      </c>
-      <c r="L17">
-        <v>26</v>
-      </c>
-      <c r="M17">
-        <v>28</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>300</v>
-      </c>
-      <c r="F18">
-        <v>44</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>15</v>
-      </c>
-      <c r="I18">
-        <v>14</v>
-      </c>
-      <c r="J18">
-        <v>29</v>
-      </c>
-      <c r="K18">
-        <v>39</v>
-      </c>
-      <c r="L18">
-        <v>12</v>
-      </c>
-      <c r="M18">
-        <v>11</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>300</v>
-      </c>
-      <c r="F19">
-        <v>44</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>26</v>
-      </c>
-      <c r="I19">
-        <v>25</v>
-      </c>
-      <c r="J19">
-        <v>13</v>
-      </c>
-      <c r="K19">
-        <v>25</v>
-      </c>
-      <c r="L19">
-        <v>27</v>
-      </c>
-      <c r="M19">
-        <v>39</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>300</v>
-      </c>
-      <c r="F20">
-        <v>44</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>25</v>
-      </c>
-      <c r="I20">
-        <v>13</v>
-      </c>
-      <c r="J20">
-        <v>29</v>
-      </c>
-      <c r="K20">
-        <v>32</v>
-      </c>
-      <c r="L20">
-        <v>26</v>
-      </c>
-      <c r="M20">
-        <v>34</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <v>300</v>
-      </c>
-      <c r="F21">
-        <v>44</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>21</v>
-      </c>
-      <c r="I21">
-        <v>32</v>
-      </c>
-      <c r="J21">
-        <v>34</v>
-      </c>
-      <c r="K21">
-        <v>28</v>
-      </c>
-      <c r="L21">
-        <v>34</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C11DD8-D189-48F6-998E-FBE9C6290B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B30C9E3-14BA-425A-826F-2C75D50EEE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8928" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,6 +612,15 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -620,6 +629,15 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -628,6 +646,15 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -636,6 +663,15 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>300</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -644,6 +680,15 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -652,6 +697,15 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -660,6 +714,15 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -668,6 +731,15 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -676,6 +748,15 @@
       <c r="B10" t="s">
         <v>21</v>
       </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -684,6 +765,15 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -692,6 +782,15 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -700,6 +799,15 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -708,6 +816,15 @@
       <c r="B14" t="s">
         <v>25</v>
       </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -716,6 +833,15 @@
       <c r="B15" t="s">
         <v>26</v>
       </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -724,45 +850,99 @@
       <c r="B16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B30C9E3-14BA-425A-826F-2C75D50EEE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A79D5C7-B78F-4274-979A-3612333314CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,6 +621,34 @@
       <c r="E2">
         <v>300</v>
       </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>54</v>
+      </c>
+      <c r="I2">
+        <v>52</v>
+      </c>
+      <c r="J2">
+        <v>166</v>
+      </c>
+      <c r="K2">
+        <v>134</v>
+      </c>
+      <c r="L2">
+        <v>4.5</v>
+      </c>
+      <c r="M2">
+        <v>171</v>
+      </c>
+      <c r="N2">
+        <f>SUM(H2:M2)</f>
+        <v>581.5</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -638,6 +666,34 @@
       <c r="E3">
         <v>300</v>
       </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>46</v>
+      </c>
+      <c r="I3">
+        <v>49</v>
+      </c>
+      <c r="J3">
+        <v>130</v>
+      </c>
+      <c r="K3">
+        <v>131</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <v>128</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N21" si="0">SUM(H3:M3)</f>
+        <v>498</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -655,6 +711,34 @@
       <c r="E4">
         <v>300</v>
       </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>56</v>
+      </c>
+      <c r="J4">
+        <v>163</v>
+      </c>
+      <c r="K4">
+        <v>143</v>
+      </c>
+      <c r="L4">
+        <v>19</v>
+      </c>
+      <c r="M4">
+        <v>168</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>599</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -672,6 +756,34 @@
       <c r="E5">
         <v>300</v>
       </c>
+      <c r="F5">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>62</v>
+      </c>
+      <c r="I5">
+        <v>57</v>
+      </c>
+      <c r="J5">
+        <v>166</v>
+      </c>
+      <c r="K5">
+        <v>155</v>
+      </c>
+      <c r="L5">
+        <v>17.5</v>
+      </c>
+      <c r="M5">
+        <v>202</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>659.5</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -689,6 +801,34 @@
       <c r="E6">
         <v>300</v>
       </c>
+      <c r="F6">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>68</v>
+      </c>
+      <c r="I6">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <v>160</v>
+      </c>
+      <c r="K6">
+        <v>158</v>
+      </c>
+      <c r="L6">
+        <v>20.5</v>
+      </c>
+      <c r="M6">
+        <v>180</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>643.5</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -706,6 +846,34 @@
       <c r="E7">
         <v>300</v>
       </c>
+      <c r="F7">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>63</v>
+      </c>
+      <c r="I7">
+        <v>53</v>
+      </c>
+      <c r="J7">
+        <v>155</v>
+      </c>
+      <c r="K7">
+        <v>159</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>162</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>604</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -723,6 +891,34 @@
       <c r="E8">
         <v>300</v>
       </c>
+      <c r="F8">
+        <v>44</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>133</v>
+      </c>
+      <c r="K8">
+        <v>125</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>162</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -740,6 +936,34 @@
       <c r="E9">
         <v>300</v>
       </c>
+      <c r="F9">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>52</v>
+      </c>
+      <c r="I9">
+        <v>49</v>
+      </c>
+      <c r="J9">
+        <v>138</v>
+      </c>
+      <c r="K9">
+        <v>135</v>
+      </c>
+      <c r="L9">
+        <v>17</v>
+      </c>
+      <c r="M9">
+        <v>149</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -757,6 +981,34 @@
       <c r="E10">
         <v>300</v>
       </c>
+      <c r="F10">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>52</v>
+      </c>
+      <c r="I10">
+        <v>57</v>
+      </c>
+      <c r="J10">
+        <v>158</v>
+      </c>
+      <c r="K10">
+        <v>139</v>
+      </c>
+      <c r="L10">
+        <v>21.5</v>
+      </c>
+      <c r="M10">
+        <v>174</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>601.5</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -774,6 +1026,34 @@
       <c r="E11">
         <v>300</v>
       </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>155</v>
+      </c>
+      <c r="K11">
+        <v>144</v>
+      </c>
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="M11">
+        <v>160</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>581</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -791,6 +1071,12 @@
       <c r="E12">
         <v>300</v>
       </c>
+      <c r="F12">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -808,6 +1094,12 @@
       <c r="E13">
         <v>300</v>
       </c>
+      <c r="F13">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -825,6 +1117,12 @@
       <c r="E14">
         <v>300</v>
       </c>
+      <c r="F14">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -842,6 +1140,12 @@
       <c r="E15">
         <v>300</v>
       </c>
+      <c r="F15">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -859,8 +1163,14 @@
       <c r="E16">
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -876,8 +1186,14 @@
       <c r="E17">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -893,8 +1209,14 @@
       <c r="E18">
         <v>300</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -910,8 +1232,14 @@
       <c r="E19">
         <v>300</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -927,8 +1255,14 @@
       <c r="E20">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -943,6 +1277,12 @@
       </c>
       <c r="E21">
         <v>300</v>
+      </c>
+      <c r="F21">
+        <v>44</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A79D5C7-B78F-4274-979A-3612333314CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0C779E-4886-4303-8717-34A276E49E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,6 +1077,28 @@
       <c r="G12">
         <v>0</v>
       </c>
+      <c r="H12">
+        <v>68</v>
+      </c>
+      <c r="I12">
+        <v>49</v>
+      </c>
+      <c r="J12">
+        <v>153</v>
+      </c>
+      <c r="K12">
+        <v>140</v>
+      </c>
+      <c r="L12">
+        <v>19.5</v>
+      </c>
+      <c r="M12">
+        <v>184</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>613.5</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1100,6 +1122,28 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="H13">
+        <v>65</v>
+      </c>
+      <c r="I13">
+        <v>46</v>
+      </c>
+      <c r="J13">
+        <v>166</v>
+      </c>
+      <c r="K13">
+        <v>143</v>
+      </c>
+      <c r="L13">
+        <v>11.5</v>
+      </c>
+      <c r="M13">
+        <v>171</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>602.5</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1123,6 +1167,28 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="H14">
+        <v>61</v>
+      </c>
+      <c r="I14">
+        <v>43</v>
+      </c>
+      <c r="J14">
+        <v>143</v>
+      </c>
+      <c r="K14">
+        <v>136</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>141</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>526</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1146,6 +1212,28 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>56</v>
+      </c>
+      <c r="J15">
+        <v>153</v>
+      </c>
+      <c r="K15">
+        <v>146</v>
+      </c>
+      <c r="L15">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <v>116</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1169,8 +1257,30 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>54</v>
+      </c>
+      <c r="I16">
+        <v>66</v>
+      </c>
+      <c r="J16">
+        <v>163</v>
+      </c>
+      <c r="K16">
+        <v>137</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>161</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1192,8 +1302,30 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>59</v>
+      </c>
+      <c r="I17">
+        <v>58</v>
+      </c>
+      <c r="J17">
+        <v>185</v>
+      </c>
+      <c r="K17">
+        <v>156</v>
+      </c>
+      <c r="L17">
+        <v>12.5</v>
+      </c>
+      <c r="M17">
+        <v>191</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>661.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1215,8 +1347,30 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>58</v>
+      </c>
+      <c r="I18">
+        <v>51</v>
+      </c>
+      <c r="J18">
+        <v>144</v>
+      </c>
+      <c r="K18">
+        <v>133</v>
+      </c>
+      <c r="L18">
+        <v>11.5</v>
+      </c>
+      <c r="M18">
+        <v>169</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>566.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1238,8 +1392,30 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>66</v>
+      </c>
+      <c r="I19">
+        <v>51</v>
+      </c>
+      <c r="J19">
+        <v>173</v>
+      </c>
+      <c r="K19">
+        <v>149</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>159</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1261,8 +1437,30 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>68</v>
+      </c>
+      <c r="I20">
+        <v>65</v>
+      </c>
+      <c r="J20">
+        <v>170</v>
+      </c>
+      <c r="K20">
+        <v>163</v>
+      </c>
+      <c r="L20">
+        <v>10.5</v>
+      </c>
+      <c r="M20">
+        <v>216</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>692.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1283,6 +1481,28 @@
       </c>
       <c r="G21">
         <v>0</v>
+      </c>
+      <c r="H21">
+        <v>52</v>
+      </c>
+      <c r="I21">
+        <v>53</v>
+      </c>
+      <c r="J21">
+        <v>131</v>
+      </c>
+      <c r="K21">
+        <v>116</v>
+      </c>
+      <c r="L21">
+        <v>21</v>
+      </c>
+      <c r="M21">
+        <v>161</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0C779E-4886-4303-8717-34A276E49E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94132741-EC81-4217-9589-357D77859C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,6 +649,26 @@
         <f>SUM(H2:M2)</f>
         <v>581.5</v>
       </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>15</v>
+      </c>
+      <c r="Q2">
+        <v>75</v>
+      </c>
+      <c r="R2">
+        <f>INT((O2*60+P2-Q2)/60)</f>
+        <v>10</v>
+      </c>
+      <c r="S2">
+        <f>O2*60+P2-Q2-R2*60</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>1602</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -694,6 +714,26 @@
         <f t="shared" ref="N3:N21" si="0">SUM(H3:M3)</f>
         <v>498</v>
       </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>59</v>
+      </c>
+      <c r="Q3">
+        <v>66</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R21" si="1">INT((O3*60+P3-Q3)/60)</f>
+        <v>9</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S21" si="2">O3*60+P3-Q3-R3*60</f>
+        <v>53</v>
+      </c>
+      <c r="T3">
+        <v>1602</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -739,6 +779,26 @@
         <f t="shared" si="0"/>
         <v>599</v>
       </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+      <c r="P4">
+        <v>37</v>
+      </c>
+      <c r="Q4">
+        <v>92</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>1602</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -784,6 +844,26 @@
         <f t="shared" si="0"/>
         <v>659.5</v>
       </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>59</v>
+      </c>
+      <c r="Q5">
+        <v>102</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="T5">
+        <v>1602</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -829,6 +909,26 @@
         <f t="shared" si="0"/>
         <v>643.5</v>
       </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>39</v>
+      </c>
+      <c r="Q6">
+        <v>76</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="T6">
+        <v>1602</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -874,6 +974,26 @@
         <f t="shared" si="0"/>
         <v>604</v>
       </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>57</v>
+      </c>
+      <c r="Q7">
+        <v>97</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="T7">
+        <v>1602</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -919,6 +1039,26 @@
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
+      <c r="O8">
+        <v>12</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>80</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="T8">
+        <v>1602</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -964,6 +1104,26 @@
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
+      <c r="O9">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>108</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="T9">
+        <v>1602</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1009,6 +1169,26 @@
         <f t="shared" si="0"/>
         <v>601.5</v>
       </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <v>89</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="T10">
+        <v>1602</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1054,6 +1234,26 @@
         <f t="shared" si="0"/>
         <v>581</v>
       </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>56</v>
+      </c>
+      <c r="Q11">
+        <v>73</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="T11">
+        <v>1602</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1099,6 +1299,26 @@
         <f t="shared" si="0"/>
         <v>613.5</v>
       </c>
+      <c r="O12">
+        <v>13</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <v>134</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="T12">
+        <v>1602</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1144,6 +1364,26 @@
         <f t="shared" si="0"/>
         <v>602.5</v>
       </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>75</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="T13">
+        <v>1602</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1189,6 +1429,26 @@
         <f t="shared" si="0"/>
         <v>526</v>
       </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="T14">
+        <v>1602</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1234,6 +1494,26 @@
         <f t="shared" si="0"/>
         <v>549</v>
       </c>
+      <c r="O15">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>27</v>
+      </c>
+      <c r="Q15">
+        <v>97</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="T15">
+        <v>1602</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1279,8 +1559,28 @@
         <f t="shared" si="0"/>
         <v>594</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>11</v>
+      </c>
+      <c r="P16">
+        <v>57</v>
+      </c>
+      <c r="Q16">
+        <v>100</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="T16">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1324,8 +1624,28 @@
         <f t="shared" si="0"/>
         <v>661.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>11</v>
+      </c>
+      <c r="P17">
+        <v>26</v>
+      </c>
+      <c r="Q17">
+        <v>91</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="T17">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1369,8 +1689,28 @@
         <f t="shared" si="0"/>
         <v>566.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>30</v>
+      </c>
+      <c r="Q18">
+        <v>68</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="T18">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1414,8 +1754,28 @@
         <f t="shared" si="0"/>
         <v>619</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19">
+        <v>11</v>
+      </c>
+      <c r="P19">
+        <v>40</v>
+      </c>
+      <c r="Q19">
+        <v>101</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="T19">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1459,8 +1819,28 @@
         <f t="shared" si="0"/>
         <v>692.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>12</v>
+      </c>
+      <c r="Q20">
+        <v>97</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="T20">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1503,6 +1883,26 @@
       <c r="N21">
         <f t="shared" si="0"/>
         <v>534</v>
+      </c>
+      <c r="O21">
+        <v>14</v>
+      </c>
+      <c r="P21">
+        <v>54</v>
+      </c>
+      <c r="Q21">
+        <v>61</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="T21">
+        <v>1602</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\2023 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A42EDA-9673-43BC-B95A-82D683C98891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CFCB02-DE84-42D1-A352-C66AD4B1F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1665" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="5220" yWindow="1665" windowWidth="21600" windowHeight="11325" activeTab="7" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
   <si>
     <t>Team</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>Scottish Lads</t>
-  </si>
-  <si>
-    <t>Ledig plass</t>
   </si>
   <si>
     <t>Rakus og Emilius</t>
@@ -763,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,127 +906,119 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
-    <sortCondition ref="B2:B23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+    <sortCondition ref="B2:B22"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1041,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1767,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CDCB04-4BC9-43A4-9555-0A03A3A447CC}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,10 +1916,10 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1941,10 +1930,10 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1955,10 +1944,10 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1969,10 +1958,10 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1983,10 +1972,10 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1997,10 +1986,10 @@
         <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2011,10 +2000,10 @@
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2025,10 +2014,10 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2039,10 +2028,10 @@
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2053,10 +2042,10 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2067,10 +2056,10 @@
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2081,10 +2070,10 @@
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2095,10 +2084,10 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2109,7 +2098,7 @@
         <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>116</v>
@@ -2121,12 +2110,6 @@
       </c>
       <c r="B25" t="s">
         <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\2023 Halloween games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CFCB02-DE84-42D1-A352-C66AD4B1F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E0EA3B-D89F-4F03-83FF-822D15ED5073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1665" windowWidth="21600" windowHeight="11325" activeTab="7" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
   <si>
     <t>Team</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>Team Günther</t>
+  </si>
+  <si>
+    <t>Last Minute</t>
+  </si>
+  <si>
+    <t>Hanne og Linea</t>
   </si>
 </sst>
 </file>
@@ -763,26 +769,26 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -832,188 +838,395 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>48</v>
+      </c>
+      <c r="F11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>82</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>84</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>87</v>
       </c>
       <c r="B17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>89</v>
       </c>
       <c r="B18" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>36</v>
+      </c>
+      <c r="F19">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>93</v>
       </c>
       <c r="B20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>56</v>
+      </c>
+      <c r="F20">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>47</v>
+      </c>
+      <c r="F21">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>96</v>
       </c>
       <c r="B22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>37</v>
+      </c>
+      <c r="F23">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>116</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>46</v>
+      </c>
+      <c r="F24">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1028,20 +1241,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1091,209 +1304,417 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>58</v>
+      </c>
+      <c r="F2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F9">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F14">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>57</v>
+      </c>
+      <c r="F21">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
-    <sortCondition ref="B2:B25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
+    <sortCondition ref="B2:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1307,18 +1728,18 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1358,18 +1779,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
   </sheetData>
@@ -1411,17 +1832,17 @@
       <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1454,17 +1875,17 @@
       <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1497,9 +1918,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1507,7 +1928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1515,7 +1936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1523,7 +1944,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1531,7 +1952,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1539,7 +1960,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1547,7 +1968,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1555,7 +1976,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1563,7 +1984,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1571,7 +1992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1579,7 +2000,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1587,7 +2008,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1595,7 +2016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1603,7 +2024,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1611,7 +2032,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1619,7 +2040,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1627,7 +2048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1635,7 +2056,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1643,7 +2064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1651,7 +2072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1659,7 +2080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1667,7 +2088,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1675,7 +2096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1683,7 +2104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1691,7 +2112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1699,7 +2120,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1707,7 +2128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1715,7 +2136,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1723,7 +2144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1731,7 +2152,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1739,7 +2160,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1754,21 +2175,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CDCB04-4BC9-43A4-9555-0A03A3A447CC}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -1782,7 +2203,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1796,7 +2217,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1810,7 +2231,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1824,7 +2245,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1838,7 +2259,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1852,7 +2273,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1866,7 +2287,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1880,7 +2301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1894,7 +2315,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1908,7 +2329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1922,7 +2343,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1936,7 +2357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1950,7 +2371,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1964,7 +2385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1978,7 +2399,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1992,7 +2413,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2006,7 +2427,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2020,7 +2441,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -2034,7 +2455,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2048,7 +2469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2062,7 +2483,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -2076,7 +2497,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -2090,7 +2511,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -2104,7 +2525,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2112,12 +2533,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>110</v>
       </c>
       <c r="B26" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E0EA3B-D89F-4F03-83FF-822D15ED5073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43156A5-DCC0-4B18-B940-9E3E5A34371E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -170,12 +170,6 @@
     <t>Fadderfaenta</t>
   </si>
   <si>
-    <t>Marte og Maren</t>
-  </si>
-  <si>
-    <t>The Grieg Stars</t>
-  </si>
-  <si>
     <t>Johanne og Bettine</t>
   </si>
   <si>
@@ -402,6 +396,12 @@
   </si>
   <si>
     <t>Hanne og Linea</t>
+  </si>
+  <si>
+    <t>Maren og Andreea</t>
+  </si>
+  <si>
+    <t>Team Siste Liten</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,16 +814,16 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
         <v>98</v>
-      </c>
-      <c r="J1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" t="s">
-        <v>100</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
@@ -840,10 +840,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -854,13 +854,35 @@
       <c r="F2">
         <v>224</v>
       </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>67</v>
+      </c>
+      <c r="J2">
+        <v>88</v>
+      </c>
+      <c r="K2">
+        <v>61</v>
+      </c>
+      <c r="L2">
+        <v>71</v>
+      </c>
+      <c r="M2">
+        <f>SUM(I2:L2)</f>
+        <v>287</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -871,13 +893,35 @@
       <c r="F3">
         <v>224</v>
       </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>59</v>
+      </c>
+      <c r="J3">
+        <v>71</v>
+      </c>
+      <c r="K3">
+        <v>58</v>
+      </c>
+      <c r="L3">
+        <v>54</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M24" si="0">SUM(I3:L3)</f>
+        <v>242</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -887,6 +931,28 @@
       </c>
       <c r="F4">
         <v>224</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>65</v>
+      </c>
+      <c r="J4">
+        <v>76</v>
+      </c>
+      <c r="K4">
+        <v>56</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -894,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -905,13 +971,35 @@
       <c r="F5">
         <v>224</v>
       </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>65</v>
+      </c>
+      <c r="J5">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -922,13 +1010,35 @@
       <c r="F6">
         <v>224</v>
       </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>61</v>
+      </c>
+      <c r="J6">
+        <v>77</v>
+      </c>
+      <c r="K6">
+        <v>57</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -939,13 +1049,35 @@
       <c r="F7">
         <v>224</v>
       </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>66</v>
+      </c>
+      <c r="J7">
+        <v>85</v>
+      </c>
+      <c r="K7">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>72</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>283</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -956,13 +1088,35 @@
       <c r="F8">
         <v>192</v>
       </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -973,13 +1127,35 @@
       <c r="F9">
         <v>195</v>
       </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>55</v>
+      </c>
+      <c r="J9">
+        <v>49</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>48</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -990,13 +1166,35 @@
       <c r="F10">
         <v>215</v>
       </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>59</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10">
+        <v>51</v>
+      </c>
+      <c r="L10">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>8</v>
@@ -1007,13 +1205,35 @@
       <c r="F11">
         <v>224</v>
       </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>68</v>
+      </c>
+      <c r="J11">
+        <v>97</v>
+      </c>
+      <c r="K11">
+        <v>57</v>
+      </c>
+      <c r="L11">
+        <v>72</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -1024,13 +1244,35 @@
       <c r="F12">
         <v>224</v>
       </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>75</v>
+      </c>
+      <c r="J12">
+        <v>88</v>
+      </c>
+      <c r="K12">
+        <v>63</v>
+      </c>
+      <c r="L12">
+        <v>69</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13">
         <v>9</v>
@@ -1041,13 +1283,35 @@
       <c r="F13">
         <v>224</v>
       </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>69</v>
+      </c>
+      <c r="J13">
+        <v>75</v>
+      </c>
+      <c r="K13">
+        <v>54</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -1058,13 +1322,35 @@
       <c r="F14">
         <v>224</v>
       </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>63</v>
+      </c>
+      <c r="J14">
+        <v>69</v>
+      </c>
+      <c r="K14">
+        <v>55</v>
+      </c>
+      <c r="L14">
+        <v>52</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -1075,13 +1361,35 @@
       <c r="F15">
         <v>224</v>
       </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>65</v>
+      </c>
+      <c r="J15">
+        <v>101</v>
+      </c>
+      <c r="K15">
+        <v>61</v>
+      </c>
+      <c r="L15">
+        <v>55</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -1092,13 +1400,35 @@
       <c r="F16">
         <v>224</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>70</v>
+      </c>
+      <c r="J16">
+        <v>96</v>
+      </c>
+      <c r="K16">
+        <v>68</v>
+      </c>
+      <c r="L16">
+        <v>51</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1109,13 +1439,35 @@
       <c r="F17">
         <v>224</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>68</v>
+      </c>
+      <c r="J17">
+        <v>89</v>
+      </c>
+      <c r="K17">
+        <v>62</v>
+      </c>
+      <c r="L17">
+        <v>61</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -1126,13 +1478,35 @@
       <c r="F18">
         <v>224</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>64</v>
+      </c>
+      <c r="J18">
+        <v>75</v>
+      </c>
+      <c r="K18">
+        <v>55</v>
+      </c>
+      <c r="L18">
+        <v>55</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1143,13 +1517,35 @@
       <c r="F19">
         <v>224</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>66</v>
+      </c>
+      <c r="J19">
+        <v>83</v>
+      </c>
+      <c r="K19">
+        <v>60</v>
+      </c>
+      <c r="L19">
+        <v>54</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -1160,13 +1556,35 @@
       <c r="F20">
         <v>224</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>65</v>
+      </c>
+      <c r="J20">
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <v>56</v>
+      </c>
+      <c r="L20">
+        <v>49</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -1177,13 +1595,35 @@
       <c r="F21">
         <v>224</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <v>105</v>
+      </c>
+      <c r="K21">
+        <v>65</v>
+      </c>
+      <c r="L21">
+        <v>69</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -1194,13 +1634,35 @@
       <c r="F22">
         <v>224</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>67</v>
+      </c>
+      <c r="J22">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>59</v>
+      </c>
+      <c r="L22">
+        <v>55</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -1211,13 +1673,35 @@
       <c r="F23">
         <v>224</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>64</v>
+      </c>
+      <c r="J23">
+        <v>96</v>
+      </c>
+      <c r="K23">
+        <v>65</v>
+      </c>
+      <c r="L23">
+        <v>64</v>
+      </c>
+      <c r="M23">
+        <f>SUM(I23:L23)</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -1227,6 +1711,28 @@
       </c>
       <c r="F24">
         <v>224</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>67</v>
+      </c>
+      <c r="J24">
+        <v>107</v>
+      </c>
+      <c r="K24">
+        <v>63</v>
+      </c>
+      <c r="L24">
+        <v>65</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1750,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1280,16 +1786,16 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
         <v>98</v>
-      </c>
-      <c r="J1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" t="s">
-        <v>100</v>
       </c>
       <c r="M1" t="s">
         <v>6</v>
@@ -1320,6 +1826,28 @@
       <c r="F2">
         <v>224</v>
       </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>55</v>
+      </c>
+      <c r="J2">
+        <v>43</v>
+      </c>
+      <c r="K2">
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <v>43</v>
+      </c>
+      <c r="M2">
+        <f>SUM(I2:L2)</f>
+        <v>164</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1337,6 +1865,28 @@
       <c r="F3">
         <v>224</v>
       </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>66</v>
+      </c>
+      <c r="J3">
+        <v>83</v>
+      </c>
+      <c r="K3">
+        <v>60</v>
+      </c>
+      <c r="L3">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M25" si="0">SUM(I3:L3)</f>
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1354,6 +1904,28 @@
       <c r="F4">
         <v>209</v>
       </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>55</v>
+      </c>
+      <c r="J4">
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>32</v>
+      </c>
+      <c r="L4">
+        <v>35</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1371,10 +1943,32 @@
       <c r="F5">
         <v>224</v>
       </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>55</v>
+      </c>
+      <c r="J5">
+        <v>65</v>
+      </c>
+      <c r="K5">
+        <v>59</v>
+      </c>
+      <c r="L5">
+        <v>32</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -1387,6 +1981,28 @@
       </c>
       <c r="F6">
         <v>196</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>58</v>
+      </c>
+      <c r="K6">
+        <v>25</v>
+      </c>
+      <c r="L6">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1405,6 +2021,28 @@
       <c r="F7">
         <v>224</v>
       </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>63</v>
+      </c>
+      <c r="J7">
+        <v>78</v>
+      </c>
+      <c r="K7">
+        <v>56</v>
+      </c>
+      <c r="L7">
+        <v>46</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1422,6 +2060,28 @@
       <c r="F8">
         <v>224</v>
       </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>62</v>
+      </c>
+      <c r="J8">
+        <v>77</v>
+      </c>
+      <c r="K8">
+        <v>58</v>
+      </c>
+      <c r="L8">
+        <v>47</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1439,6 +2099,28 @@
       <c r="F9">
         <v>224</v>
       </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>57</v>
+      </c>
+      <c r="J9">
+        <v>84</v>
+      </c>
+      <c r="K9">
+        <v>60</v>
+      </c>
+      <c r="L9">
+        <v>37</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1456,6 +2138,28 @@
       <c r="F10">
         <v>204</v>
       </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>51</v>
+      </c>
+      <c r="J10">
+        <v>52</v>
+      </c>
+      <c r="K10">
+        <v>48</v>
+      </c>
+      <c r="L10">
+        <v>32</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1473,6 +2177,28 @@
       <c r="F11">
         <v>224</v>
       </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>59</v>
+      </c>
+      <c r="J11">
+        <v>62</v>
+      </c>
+      <c r="K11">
+        <v>41</v>
+      </c>
+      <c r="L11">
+        <v>34</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1490,13 +2216,35 @@
       <c r="F12">
         <v>224</v>
       </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>56</v>
+      </c>
+      <c r="J12">
+        <v>65</v>
+      </c>
+      <c r="K12">
+        <v>41</v>
+      </c>
+      <c r="L12">
+        <v>39</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1507,13 +2255,35 @@
       <c r="F13">
         <v>224</v>
       </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>64</v>
+      </c>
+      <c r="J13">
+        <v>76</v>
+      </c>
+      <c r="K13">
+        <v>56</v>
+      </c>
+      <c r="L13">
+        <v>38</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -1524,13 +2294,35 @@
       <c r="F14">
         <v>224</v>
       </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>64</v>
+      </c>
+      <c r="J14">
+        <v>78</v>
+      </c>
+      <c r="K14">
+        <v>58</v>
+      </c>
+      <c r="L14">
+        <v>39</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -1541,13 +2333,35 @@
       <c r="F15">
         <v>224</v>
       </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>64</v>
+      </c>
+      <c r="J15">
+        <v>71</v>
+      </c>
+      <c r="K15">
+        <v>55</v>
+      </c>
+      <c r="L15">
+        <v>33</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1558,13 +2372,35 @@
       <c r="F16">
         <v>220</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>62</v>
+      </c>
+      <c r="J16">
+        <v>61</v>
+      </c>
+      <c r="K16">
+        <v>29</v>
+      </c>
+      <c r="L16">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1575,13 +2411,35 @@
       <c r="F17">
         <v>224</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>64</v>
+      </c>
+      <c r="J17">
+        <v>87</v>
+      </c>
+      <c r="K17">
+        <v>68</v>
+      </c>
+      <c r="L17">
+        <v>38</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -1592,13 +2450,35 @@
       <c r="F18">
         <v>224</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>57</v>
+      </c>
+      <c r="J18">
+        <v>66</v>
+      </c>
+      <c r="K18">
+        <v>35</v>
+      </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1609,13 +2489,35 @@
       <c r="F19">
         <v>224</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>64</v>
+      </c>
+      <c r="J19">
+        <v>90</v>
+      </c>
+      <c r="K19">
+        <v>58</v>
+      </c>
+      <c r="L19">
+        <v>45</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>7</v>
@@ -1626,13 +2528,35 @@
       <c r="F20">
         <v>224</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>48</v>
+      </c>
+      <c r="J20">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>60</v>
+      </c>
+      <c r="L20">
+        <v>42</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -1643,13 +2567,35 @@
       <c r="F21">
         <v>224</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>63</v>
+      </c>
+      <c r="J21">
+        <v>83</v>
+      </c>
+      <c r="K21">
+        <v>55</v>
+      </c>
+      <c r="L21">
+        <v>42</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22">
         <v>9</v>
@@ -1660,13 +2606,35 @@
       <c r="F22">
         <v>224</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+      <c r="J22">
+        <v>67</v>
+      </c>
+      <c r="K22">
+        <v>47</v>
+      </c>
+      <c r="L22">
+        <v>41</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>7</v>
@@ -1677,13 +2645,35 @@
       <c r="F23">
         <v>224</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>57</v>
+      </c>
+      <c r="J23">
+        <v>76</v>
+      </c>
+      <c r="K23">
+        <v>60</v>
+      </c>
+      <c r="L23">
+        <v>39</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24">
         <v>8</v>
@@ -1694,13 +2684,35 @@
       <c r="F24">
         <v>224</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>55</v>
+      </c>
+      <c r="J24">
+        <v>93</v>
+      </c>
+      <c r="K24">
+        <v>55</v>
+      </c>
+      <c r="L24">
+        <v>39</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -1710,6 +2722,28 @@
       </c>
       <c r="F25">
         <v>224</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+      <c r="J25">
+        <v>78</v>
+      </c>
+      <c r="K25">
+        <v>31</v>
+      </c>
+      <c r="L25">
+        <v>41</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1756,10 +2790,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1807,10 +2841,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -2177,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CDCB04-4BC9-43A4-9555-0A03A3A447CC}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2191,16 +3225,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2211,10 +3245,10 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2225,10 +3259,10 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2239,10 +3273,10 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2256,7 +3290,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2267,10 +3301,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2281,10 +3315,10 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2292,13 +3326,13 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2309,10 +3343,10 @@
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2323,10 +3357,10 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2337,10 +3371,10 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2351,10 +3385,10 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2365,10 +3399,10 @@
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2379,174 +3413,174 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43156A5-DCC0-4B18-B940-9E3E5A34371E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2A0EF8-D1CD-4BD4-A95B-D44899B6175A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,6 +876,15 @@
         <f>SUM(I2:L2)</f>
         <v>287</v>
       </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>156</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -915,6 +924,15 @@
         <f t="shared" ref="M3:M24" si="0">SUM(I3:L3)</f>
         <v>242</v>
       </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>148</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -954,6 +972,15 @@
         <f t="shared" si="0"/>
         <v>253</v>
       </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>151</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -993,6 +1020,15 @@
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>136</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1032,6 +1068,15 @@
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>142</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1071,6 +1116,15 @@
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>48</v>
+      </c>
+      <c r="P7">
+        <v>156</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1110,6 +1164,15 @@
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1149,6 +1212,15 @@
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>124</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1188,6 +1260,15 @@
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>128</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1227,6 +1308,15 @@
         <f t="shared" si="0"/>
         <v>294</v>
       </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>152</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1266,6 +1356,15 @@
         <f t="shared" si="0"/>
         <v>295</v>
       </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>41</v>
+      </c>
+      <c r="P12">
+        <v>156</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1305,6 +1404,15 @@
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>136</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1344,6 +1452,15 @@
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>136</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1383,6 +1500,15 @@
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>44</v>
+      </c>
+      <c r="P15">
+        <v>156</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1422,8 +1548,17 @@
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1461,8 +1596,17 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -1500,8 +1644,17 @@
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1539,8 +1692,17 @@
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19">
+        <v>29</v>
+      </c>
+      <c r="P19">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -1578,8 +1740,17 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -1617,8 +1788,17 @@
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -1656,8 +1836,17 @@
         <f t="shared" si="0"/>
         <v>266</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1695,8 +1884,17 @@
         <f>SUM(I23:L23)</f>
         <v>289</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23">
+        <v>18</v>
+      </c>
+      <c r="P23">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1733,6 +1931,15 @@
       <c r="M24">
         <f t="shared" si="0"/>
         <v>302</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>37</v>
+      </c>
+      <c r="P24">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1749,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1848,6 +2055,12 @@
         <f>SUM(I2:L2)</f>
         <v>164</v>
       </c>
+      <c r="N2">
+        <v>8</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1887,6 +2100,12 @@
         <f t="shared" ref="M3:M25" si="0">SUM(I3:L3)</f>
         <v>253</v>
       </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1926,6 +2145,12 @@
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1965,6 +2190,12 @@
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2004,6 +2235,12 @@
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2043,6 +2280,12 @@
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2082,6 +2325,12 @@
         <f t="shared" si="0"/>
         <v>244</v>
       </c>
+      <c r="N8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2121,6 +2370,12 @@
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
+      <c r="N9">
+        <v>8</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2160,6 +2415,12 @@
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2199,6 +2460,12 @@
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2238,6 +2505,12 @@
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2277,6 +2550,12 @@
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
+      <c r="N13">
+        <v>8</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2316,6 +2595,12 @@
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2355,6 +2640,12 @@
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2394,8 +2685,14 @@
         <f t="shared" si="0"/>
         <v>191</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>8</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2433,8 +2730,14 @@
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2472,8 +2775,14 @@
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>8</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2511,8 +2820,14 @@
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2550,8 +2865,14 @@
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2589,8 +2910,14 @@
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>8</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2628,8 +2955,14 @@
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -2655,7 +2988,7 @@
         <v>57</v>
       </c>
       <c r="J23">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K23">
         <v>60</v>
@@ -2665,10 +2998,16 @@
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="N23">
+        <v>8</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2706,8 +3045,14 @@
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -2744,6 +3089,12 @@
       <c r="M25">
         <f t="shared" si="0"/>
         <v>210</v>
+      </c>
+      <c r="N25">
+        <v>8</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2A0EF8-D1CD-4BD4-A95B-D44899B6175A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998FE779-49A0-45E1-B4AB-0910E9E80354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1699,7 +1699,7 @@
         <v>29</v>
       </c>
       <c r="P19">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998FE779-49A0-45E1-B4AB-0910E9E80354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BFBE59-7049-4B14-8EF3-445358E42F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
@@ -1956,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2061,6 +2061,9 @@
       <c r="O2">
         <v>0</v>
       </c>
+      <c r="P2">
+        <v>120</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2101,10 +2104,13 @@
         <v>253</v>
       </c>
       <c r="N3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -2151,6 +2157,9 @@
       <c r="O4">
         <v>0</v>
       </c>
+      <c r="P4">
+        <v>136</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2196,6 +2205,9 @@
       <c r="O5">
         <v>0</v>
       </c>
+      <c r="P5">
+        <v>149</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2241,6 +2253,9 @@
       <c r="O6">
         <v>0</v>
       </c>
+      <c r="P6">
+        <v>130</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2286,6 +2301,9 @@
       <c r="O7">
         <v>0</v>
       </c>
+      <c r="P7">
+        <v>138</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2331,6 +2349,9 @@
       <c r="O8">
         <v>0</v>
       </c>
+      <c r="P8">
+        <v>144</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2371,10 +2392,13 @@
         <v>238</v>
       </c>
       <c r="N9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <v>0</v>
+      </c>
+      <c r="P9">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -2421,6 +2445,9 @@
       <c r="O10">
         <v>0</v>
       </c>
+      <c r="P10">
+        <v>136</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2466,6 +2493,9 @@
       <c r="O11">
         <v>0</v>
       </c>
+      <c r="P11">
+        <v>143</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2511,6 +2541,9 @@
       <c r="O12">
         <v>0</v>
       </c>
+      <c r="P12">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2556,6 +2589,9 @@
       <c r="O13">
         <v>0</v>
       </c>
+      <c r="P13">
+        <v>152</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2601,6 +2637,9 @@
       <c r="O14">
         <v>0</v>
       </c>
+      <c r="P14">
+        <v>152</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2646,6 +2685,9 @@
       <c r="O15">
         <v>0</v>
       </c>
+      <c r="P15">
+        <v>151</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2691,8 +2733,11 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2731,13 +2776,16 @@
         <v>257</v>
       </c>
       <c r="N17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="P17">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2781,8 +2829,11 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -2821,13 +2872,16 @@
         <v>257</v>
       </c>
       <c r="N19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="P19">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2871,8 +2925,11 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -2911,13 +2968,16 @@
         <v>243</v>
       </c>
       <c r="N21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -2961,8 +3021,11 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -3001,13 +3064,16 @@
         <v>241</v>
       </c>
       <c r="N23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="P23">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -3051,8 +3117,11 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -3095,6 +3164,9 @@
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BFBE59-7049-4B14-8EF3-445358E42F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EB2FF2-97E9-49EA-841C-30B3C582ED4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="119">
   <si>
     <t>Team</t>
   </si>
@@ -1956,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9843006-8703-4207-A36C-EF0E705B4B66}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3179,10 +3179,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3193,7 +3193,7 @@
     <col min="4" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3220,6 +3220,342 @@
       </c>
       <c r="H1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>VLOOKUP(B2,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Mathias og Jakob</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2">
+        <v>275</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>102.5</v>
+      </c>
+      <c r="G2">
+        <v>130</v>
+      </c>
+      <c r="H2">
+        <f>SUM(F2:G2)</f>
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>VLOOKUP(B3,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Kristoffer og Jørgen</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3">
+        <v>275</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>105</v>
+      </c>
+      <c r="G3">
+        <v>135</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="0">SUM(F3:G3)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>VLOOKUP(B4,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Henrik og Henrik</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4">
+        <v>275</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>95</v>
+      </c>
+      <c r="G4">
+        <v>115</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>VLOOKUP(B5,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Finn og Eirik</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>251</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>80</v>
+      </c>
+      <c r="G5">
+        <v>120</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>VLOOKUP(B6,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Christian og Robin</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>238</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>97.5</v>
+      </c>
+      <c r="G6">
+        <v>120</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>VLOOKUP(B7,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Emil og Rakan</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>233</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>112.5</v>
+      </c>
+      <c r="G7">
+        <v>110</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>222.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>VLOOKUP(B8,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Ole og Mikus</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>220</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>92.5</v>
+      </c>
+      <c r="G8">
+        <v>120</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>VLOOKUP(B9,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Heine og Simen</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>211</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <v>95</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>VLOOKUP(B10,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Thorvald og Thomas</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>207</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>76.5</v>
+      </c>
+      <c r="G10">
+        <v>112.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>VLOOKUP(B11,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Håvar og Mikal</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>203</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>62.5</v>
+      </c>
+      <c r="G11">
+        <v>115</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>VLOOKUP(B12,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Jonas og Dush</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>193</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>85</v>
+      </c>
+      <c r="G12">
+        <v>112.5</v>
+      </c>
+      <c r="H12">
+        <f>SUM(F12:G12)</f>
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>VLOOKUP(B13,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Per og Runar</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>190</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <v>142.5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>222.5</v>
       </c>
     </row>
   </sheetData>
@@ -3233,7 +3569,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3244,7 +3580,7 @@
     <col min="4" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -3273,8 +3609,341 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>VLOOKUP(B2,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Hedda og Elisabeth</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>82.5</v>
+      </c>
+      <c r="H2">
+        <f>SUM(F2:G2)</f>
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>VLOOKUP(B3,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Synne og Kristine</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>256</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>52.5</v>
+      </c>
+      <c r="G3">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="0">SUM(F3:G3)</f>
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>VLOOKUP(B4,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Lea og Emilie</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>245</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>67.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>VLOOKUP(B5,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Helene og Caroline</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>236</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>52.5</v>
+      </c>
+      <c r="G5">
+        <v>82.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>VLOOKUP(B6,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Amalie og Thea</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>236</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>47.5</v>
+      </c>
+      <c r="G6">
+        <v>65</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>VLOOKUP(B7,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Johanne og Bettine</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>232</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>72.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>VLOOKUP(B8,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Lisa og Emma</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>229</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>85</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>VLOOKUP(B9,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Sara og Tiril</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>222</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>72.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>VLOOKUP(B10,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Camilla og Melissa</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>215</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>47.5</v>
+      </c>
+      <c r="G10">
+        <v>67.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>VLOOKUP(B11,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Vrinda og Lise</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>210</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>57.5</v>
+      </c>
+      <c r="G11">
+        <v>62.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>VLOOKUP(B12,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Frida og Alina</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12">
+        <v>205</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>37.5</v>
+      </c>
+      <c r="G12">
+        <v>55</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>92.5</v>
+      </c>
+    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
+      <c r="A13" t="str">
+        <f>VLOOKUP(B13,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Maren og Andreea</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13">
+        <v>193</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>62.5</v>
+      </c>
+      <c r="G13">
+        <v>70</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>132.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3371,8 +4040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE0349A-1D2A-4BA4-9394-3B33A3DE0436}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3632,357 +4301,357 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CDCB04-4BC9-43A4-9555-0A03A3A447CC}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
       <c r="E1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
       <c r="E2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
       <c r="E3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
       <c r="E4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>65</v>
-      </c>
       <c r="E6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
       <c r="E7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>105</v>
       </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
       <c r="E9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
       <c r="E10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
       <c r="E11" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
       <c r="E12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
       <c r="E13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
       <c r="E14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>118</v>
       </c>
       <c r="B15" t="s">
         <v>117</v>
       </c>
-      <c r="D15" t="s">
-        <v>82</v>
-      </c>
       <c r="E15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
-        <v>84</v>
-      </c>
       <c r="E16" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
       <c r="E17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
       <c r="E18" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
       <c r="E19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
-        <v>91</v>
-      </c>
       <c r="E20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
       <c r="E21" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
       <c r="E22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
       <c r="E23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>106</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
       <c r="E24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -3990,7 +4659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -3998,7 +4667,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>115</v>
       </c>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EB2FF2-97E9-49EA-841C-30B3C582ED4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20451F3-6B7F-4EA2-A03D-726407B5A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -3182,7 +3182,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3411,11 +3411,11 @@
         <v>92.5</v>
       </c>
       <c r="G8">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>212.5</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3548,14 +3548,14 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>142.5</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>222.5</v>
+        <v>142.5</v>
       </c>
     </row>
   </sheetData>
@@ -3569,7 +3569,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2023 Halloween games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20451F3-6B7F-4EA2-A03D-726407B5A984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC80503-639D-409E-84C3-AD1EFDCDB571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreM" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="119">
   <si>
     <t>Team</t>
   </si>
@@ -3181,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7B303-D134-4B68-817A-1C98D6DE7BBB}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3569,7 +3569,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3952,15 +3952,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194F9D7B-FF40-4CA2-9BCD-9EF4497138EF}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -3988,6 +3988,132 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>VLOOKUP(B2,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Kristoffer og Jørgen</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2">
+        <v>375</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>VLOOKUP(B3,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Mathias og Jakob</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>370</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>VLOOKUP(B4,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Henrik og Henrik</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4">
+        <v>355</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>VLOOKUP(B5,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Finn og Eirik</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>326</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>VLOOKUP(B6,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Christian og Robin</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>323</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>VLOOKUP(B7,Teams!$E$2:$F$24,2,FALSE)</f>
+        <v>Emil og Rakan</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>323</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3995,10 +4121,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D7A0B0-DC45-4A2F-A461-9AA66BC99F43}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4029,6 +4155,111 @@
       </c>
       <c r="F1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>VLOOKUP(B2,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Hedda og Elisabeth</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>VLOOKUP(B3,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Synne og Kristine</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>336</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>VLOOKUP(B4,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Helene og Caroline</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>331</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>VLOOKUP(B5,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Lea og Emilie</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>325</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>VLOOKUP(B6,Teams!$A$2:$B$27,2,FALSE)</f>
+        <v>Lisa og Emma</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>314</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\2024 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4903B394-51AB-48D3-B182-F980E53D11B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF0A534-506B-459C-9DF0-F986283AC46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
       </c>
       <c r="E2">
         <f ca="1">220+INT(RAND()*150)</f>
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -625,7 +625,7 @@
       </c>
       <c r="H2">
         <f ca="1">15+INT(RAND()*20)</f>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -635,23 +635,23 @@
       </c>
       <c r="K2">
         <f ca="1">10+INT(RAND()*20)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L2">
         <f ca="1">40+INT(RAND()*60)</f>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="M2">
         <f ca="1">5+INT(RAND()*10)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N2">
         <f ca="1">40+INT(RAND()*40)</f>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="O2">
         <f ca="1">60+INT(RAND()*120)</f>
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="P2">
         <v>7</v>
@@ -660,16 +660,16 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <f ca="1">L2+M2+N2+O2</f>
-        <v>201</v>
+        <f ca="1">L2+M2*3+N2+O2</f>
+        <v>303</v>
       </c>
       <c r="S2">
         <f ca="1">INT(10+RAND()*400/60)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T2">
         <f ca="1">INT(RAND()*60)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" ca="1" si="0">220+INT(RAND()*150)</f>
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H21" ca="1" si="1">15+INT(RAND()*20)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -710,11 +710,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" ca="1" si="2">10+INT(RAND()*20)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L21" ca="1" si="3">40+INT(RAND()*60)</f>
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M21" ca="1" si="4">5+INT(RAND()*10)</f>
@@ -726,7 +726,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O21" ca="1" si="6">60+INT(RAND()*120)</f>
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="P3">
         <v>7</v>
@@ -735,16 +735,16 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R19" ca="1" si="7">L3+M3+N3+O3</f>
-        <v>296</v>
+        <f t="shared" ref="R3:R19" ca="1" si="7">L3+M3*3+N3+O3</f>
+        <v>260</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S21" ca="1" si="8">INT(10+RAND()*400/60)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T21" ca="1" si="9">INT(RAND()*60)</f>
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -775,7 +775,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -785,11 +785,11 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="4"/>
@@ -797,11 +797,11 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P4">
         <v>7</v>
@@ -811,15 +811,15 @@
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="7"/>
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="9"/>
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="U4">
         <v>2</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -860,11 +860,11 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="4"/>
@@ -872,11 +872,11 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="P5">
         <v>7</v>
@@ -886,15 +886,15 @@
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="7"/>
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -935,23 +935,23 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="P6">
         <v>7</v>
@@ -961,15 +961,15 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="7"/>
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="9"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="U6">
         <v>2</v>
@@ -990,7 +990,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -1010,23 +1010,23 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P7">
         <v>7</v>
@@ -1036,15 +1036,15 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="7"/>
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -1085,23 +1085,23 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="P8">
         <v>7</v>
@@ -1111,15 +1111,15 @@
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="7"/>
-        <v>188</v>
+        <v>328</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="U8">
         <v>2</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -1160,23 +1160,23 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P9">
         <v>7</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="7"/>
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="8"/>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="U9">
         <v>2</v>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="F10">
         <v>6</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1235,23 +1235,23 @@
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P10">
         <v>7</v>
@@ -1261,15 +1261,15 @@
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="7"/>
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -1310,23 +1310,23 @@
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="P11">
         <v>7</v>
@@ -1336,15 +1336,15 @@
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="7"/>
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -1385,23 +1385,23 @@
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="P12">
         <v>7</v>
@@ -1411,15 +1411,15 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="7"/>
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I13">
         <v>10</v>
@@ -1460,23 +1460,23 @@
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13">
         <v>7</v>
@@ -1486,15 +1486,15 @@
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="7"/>
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -1535,23 +1535,23 @@
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P14">
         <v>7</v>
@@ -1561,15 +1561,15 @@
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="7"/>
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>362</v>
+        <v>270</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <v>10</v>
@@ -1610,23 +1610,23 @@
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="P15">
         <v>7</v>
@@ -1636,15 +1636,15 @@
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="7"/>
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="9"/>
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I16">
         <v>10</v>
@@ -1685,11 +1685,11 @@
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="4"/>
@@ -1697,11 +1697,11 @@
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P16">
         <v>7</v>
@@ -1711,15 +1711,15 @@
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="7"/>
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="U16">
         <v>2</v>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -1760,23 +1760,23 @@
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="6"/>
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="P17">
         <v>7</v>
@@ -1786,15 +1786,15 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="7"/>
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="9"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="U17">
         <v>2</v>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -1835,23 +1835,23 @@
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="6"/>
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="P18">
         <v>7</v>
@@ -1861,15 +1861,15 @@
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="7"/>
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="U18">
         <v>2</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="F19">
         <v>6</v>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -1910,23 +1910,23 @@
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="P19">
         <v>7</v>
@@ -1936,15 +1936,15 @@
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="7"/>
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="9"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="U19">
         <v>2</v>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\2024 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9044E059-A973-49DC-A3C2-F7D9DCD4AC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E720C5-F44C-46DC-9A16-02007F3F0881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Team</t>
   </si>
@@ -159,6 +159,60 @@
   </si>
   <si>
     <t>Michael, Alfred, Lise, Renate</t>
+  </si>
+  <si>
+    <t>LAG 1</t>
+  </si>
+  <si>
+    <t>LAG 2</t>
+  </si>
+  <si>
+    <t>LAG 3</t>
+  </si>
+  <si>
+    <t>LAG 4</t>
+  </si>
+  <si>
+    <t>LAG 5</t>
+  </si>
+  <si>
+    <t>LAG 6</t>
+  </si>
+  <si>
+    <t>LAG 7</t>
+  </si>
+  <si>
+    <t>LAG 8</t>
+  </si>
+  <si>
+    <t>LAG 9</t>
+  </si>
+  <si>
+    <t>LAG 10</t>
+  </si>
+  <si>
+    <t>LAG 11</t>
+  </si>
+  <si>
+    <t>LAG 12</t>
+  </si>
+  <si>
+    <t>LAG 13</t>
+  </si>
+  <si>
+    <t>LAG 14</t>
+  </si>
+  <si>
+    <t>LAG 15</t>
+  </si>
+  <si>
+    <t>LAG 16</t>
+  </si>
+  <si>
+    <t>LAG 17</t>
+  </si>
+  <si>
+    <t>LAG 18</t>
   </si>
 </sst>
 </file>
@@ -519,7 +573,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +659,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -613,7 +667,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -621,7 +675,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -629,7 +683,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -637,7 +691,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -645,7 +699,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -653,7 +707,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -661,7 +715,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -669,7 +723,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -677,7 +731,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -685,7 +739,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -693,7 +747,7 @@
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -701,7 +755,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -709,7 +763,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -717,7 +771,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -725,7 +779,7 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,7 +787,7 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -741,7 +795,7 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\2024 summer games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2024 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E720C5-F44C-46DC-9A16-02007F3F0881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4D2F82-997E-4C05-A01E-8294841E95EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>Lea, Elisabeth, Daniel, William</t>
   </si>
   <si>
-    <t>Marianne, Jorunn, Alberto, Alekander</t>
-  </si>
-  <si>
     <t>Elise, Kristine, Christer, Tarik</t>
   </si>
   <si>
@@ -128,24 +125,15 @@
     <t>Mari, Miriam, Bettine, Heine</t>
   </si>
   <si>
-    <t>Mathilde, Ida, Ole, Snorre</t>
-  </si>
-  <si>
     <t>Regine, Sigrid, Emil, Lars</t>
   </si>
   <si>
     <t>Marte, Frida, Paal, Mathias</t>
   </si>
   <si>
-    <t>Marte, Elise, Bendik, Åsmund</t>
-  </si>
-  <si>
     <t>Solveig, Hedda, David, Ivan</t>
   </si>
   <si>
-    <t>Lena, Anna, Odd, Arne</t>
-  </si>
-  <si>
     <t>Youmna, Julie, Marius, Simone</t>
   </si>
   <si>
@@ -213,6 +201,18 @@
   </si>
   <si>
     <t>LAG 18</t>
+  </si>
+  <si>
+    <t>Marianne, Victoria, Alberto, Alekander</t>
+  </si>
+  <si>
+    <t>Mathilde, Ida, Ivan, Snorre</t>
+  </si>
+  <si>
+    <t>Marte, Elise, Jan, Åsmund</t>
+  </si>
+  <si>
+    <t>Lena, Emilie, Odd, Arne</t>
   </si>
 </sst>
 </file>
@@ -573,23 +573,23 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -654,148 +654,148 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -816,9 +816,9 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -826,7 +826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -834,7 +834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -842,7 +842,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -850,7 +850,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -858,7 +858,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -866,7 +866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -874,7 +874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -882,7 +882,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -890,7 +890,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -898,7 +898,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -906,7 +906,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -914,7 +914,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -922,7 +922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -938,7 +938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -946,7 +946,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -954,7 +954,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -962,7 +962,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -970,7 +970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -978,7 +978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -986,7 +986,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -994,7 +994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2024 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4D2F82-997E-4C05-A01E-8294841E95EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B0F29A-31BB-4547-B438-013BDBE92FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,6 +661,15 @@
       <c r="B2" t="s">
         <v>23</v>
       </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>298</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -669,6 +678,15 @@
       <c r="B3" t="s">
         <v>24</v>
       </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>349</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -677,6 +695,15 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -685,6 +712,15 @@
       <c r="B5" t="s">
         <v>25</v>
       </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>288</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -693,6 +729,15 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>340</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -701,6 +746,15 @@
       <c r="B7" t="s">
         <v>27</v>
       </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>267</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -709,6 +763,15 @@
       <c r="B8" t="s">
         <v>28</v>
       </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>317</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -717,6 +780,15 @@
       <c r="B9" t="s">
         <v>56</v>
       </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>347</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -725,6 +797,15 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>346</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -733,6 +814,15 @@
       <c r="B11" t="s">
         <v>30</v>
       </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>318</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -741,6 +831,15 @@
       <c r="B12" t="s">
         <v>57</v>
       </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>313</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -749,6 +848,15 @@
       <c r="B13" t="s">
         <v>31</v>
       </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>308</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -757,6 +865,15 @@
       <c r="B14" t="s">
         <v>58</v>
       </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>326</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -765,6 +882,15 @@
       <c r="B15" t="s">
         <v>32</v>
       </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>274</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -773,29 +899,65 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2024 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B0F29A-31BB-4547-B438-013BDBE92FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6387409-56B6-4BFE-A6AD-A426D677216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,6 +670,15 @@
       <c r="E2">
         <v>298</v>
       </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -687,6 +696,15 @@
       <c r="E3">
         <v>349</v>
       </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -704,6 +722,15 @@
       <c r="E4">
         <v>300</v>
       </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -721,6 +748,15 @@
       <c r="E5">
         <v>288</v>
       </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -738,6 +774,15 @@
       <c r="E6">
         <v>340</v>
       </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -755,6 +800,15 @@
       <c r="E7">
         <v>267</v>
       </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -772,6 +826,15 @@
       <c r="E8">
         <v>317</v>
       </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -789,6 +852,15 @@
       <c r="E9">
         <v>347</v>
       </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -806,6 +878,15 @@
       <c r="E10">
         <v>346</v>
       </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -823,6 +904,15 @@
       <c r="E11">
         <v>318</v>
       </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -840,6 +930,15 @@
       <c r="E12">
         <v>313</v>
       </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -857,6 +956,15 @@
       <c r="E13">
         <v>308</v>
       </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>61</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -874,6 +982,15 @@
       <c r="E14">
         <v>326</v>
       </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -891,6 +1008,15 @@
       <c r="E15">
         <v>274</v>
       </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -908,8 +1034,17 @@
       <c r="E16">
         <v>296</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -925,8 +1060,17 @@
       <c r="E17">
         <v>324</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -942,8 +1086,17 @@
       <c r="E18">
         <v>332</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -958,6 +1111,15 @@
       </c>
       <c r="E19">
         <v>287</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2024 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6387409-56B6-4BFE-A6AD-A426D677216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C724143-06F5-470E-B3E4-84308FD3E376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>Marte, Frida, Paal, Mathias</t>
   </si>
   <si>
-    <t>Solveig, Hedda, David, Ivan</t>
-  </si>
-  <si>
     <t>Youmna, Julie, Marius, Simone</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>Lena, Emilie, Odd, Arne</t>
+  </si>
+  <si>
+    <t>Solveig, Hedda, David, Anne</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +656,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
@@ -838,10 +838,10 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>15</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C13">
         <v>15</v>
@@ -968,10 +968,10 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -994,10 +994,10 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>15</v>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2024 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C724143-06F5-470E-B3E4-84308FD3E376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E32F61-B481-481A-AC33-4E89D056EDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,6 +679,15 @@
       <c r="H2">
         <v>40</v>
       </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -705,6 +714,15 @@
       <c r="H3">
         <v>60</v>
       </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -731,6 +749,15 @@
       <c r="H4">
         <v>35</v>
       </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -757,6 +784,15 @@
       <c r="H5">
         <v>47</v>
       </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -783,6 +819,15 @@
       <c r="H6">
         <v>58</v>
       </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -809,6 +854,15 @@
       <c r="H7">
         <v>45</v>
       </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -835,6 +889,15 @@
       <c r="H8">
         <v>54</v>
       </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -861,6 +924,15 @@
       <c r="H9">
         <v>50</v>
       </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -887,6 +959,15 @@
       <c r="H10">
         <v>47</v>
       </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -913,6 +994,15 @@
       <c r="H11">
         <v>46</v>
       </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -939,6 +1029,15 @@
       <c r="H12">
         <v>56</v>
       </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -965,6 +1064,15 @@
       <c r="H13">
         <v>61</v>
       </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -991,6 +1099,15 @@
       <c r="H14">
         <v>56</v>
       </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1017,6 +1134,15 @@
       <c r="H15">
         <v>42</v>
       </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1043,8 +1169,17 @@
       <c r="H16">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1069,8 +1204,17 @@
       <c r="H17">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1095,8 +1239,17 @@
       <c r="H18">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1120,6 +1273,15 @@
       </c>
       <c r="H19">
         <v>41</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2024 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E32F61-B481-481A-AC33-4E89D056EDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84CF97C-56B0-461E-96C1-46FECB386DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,6 +688,28 @@
       <c r="K2">
         <v>9</v>
       </c>
+      <c r="L2">
+        <v>88.5</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>46</v>
+      </c>
+      <c r="O2">
+        <v>90</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>L2+3*M2+N2+O2</f>
+        <v>257.5</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -723,6 +745,28 @@
       <c r="K3">
         <v>14</v>
       </c>
+      <c r="L3">
+        <v>65</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>53</v>
+      </c>
+      <c r="O3">
+        <v>133</v>
+      </c>
+      <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R19" si="0">L3+3*M3+N3+O3</f>
+        <v>314</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -758,6 +802,28 @@
       <c r="K4">
         <v>9</v>
       </c>
+      <c r="L4">
+        <v>50</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>42</v>
+      </c>
+      <c r="O4">
+        <v>71</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -793,6 +859,28 @@
       <c r="K5">
         <v>12</v>
       </c>
+      <c r="L5">
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>48</v>
+      </c>
+      <c r="O5">
+        <v>53</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -828,6 +916,28 @@
       <c r="K6">
         <v>7</v>
       </c>
+      <c r="L6">
+        <v>85</v>
+      </c>
+      <c r="M6">
+        <v>23</v>
+      </c>
+      <c r="N6">
+        <v>55</v>
+      </c>
+      <c r="O6">
+        <v>119</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -863,6 +973,28 @@
       <c r="K7">
         <v>13</v>
       </c>
+      <c r="L7">
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>57</v>
+      </c>
+      <c r="O7">
+        <v>154</v>
+      </c>
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -898,6 +1030,28 @@
       <c r="K8">
         <v>13</v>
       </c>
+      <c r="L8">
+        <v>37.5</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>44</v>
+      </c>
+      <c r="O8">
+        <v>145</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>277.5</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -933,6 +1087,28 @@
       <c r="K9">
         <v>17</v>
       </c>
+      <c r="L9">
+        <v>65</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+      <c r="N9">
+        <v>57</v>
+      </c>
+      <c r="O9">
+        <v>101</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -968,6 +1144,28 @@
       <c r="K10">
         <v>15</v>
       </c>
+      <c r="L10">
+        <v>57</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>57</v>
+      </c>
+      <c r="O10">
+        <v>154</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1003,6 +1201,28 @@
       <c r="K11">
         <v>13</v>
       </c>
+      <c r="L11">
+        <v>47.5</v>
+      </c>
+      <c r="M11">
+        <v>17</v>
+      </c>
+      <c r="N11">
+        <v>51</v>
+      </c>
+      <c r="O11">
+        <v>76</v>
+      </c>
+      <c r="P11">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="0"/>
+        <v>225.5</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1038,6 +1258,28 @@
       <c r="K12">
         <v>9</v>
       </c>
+      <c r="L12">
+        <v>67.5</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>41</v>
+      </c>
+      <c r="O12">
+        <v>54</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>192.5</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1073,6 +1315,28 @@
       <c r="K13">
         <v>12</v>
       </c>
+      <c r="L13">
+        <v>85</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>50</v>
+      </c>
+      <c r="O13">
+        <v>81</v>
+      </c>
+      <c r="P13">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1108,6 +1372,28 @@
       <c r="K14">
         <v>20</v>
       </c>
+      <c r="L14">
+        <v>57.5</v>
+      </c>
+      <c r="M14">
+        <v>21</v>
+      </c>
+      <c r="N14">
+        <v>65</v>
+      </c>
+      <c r="O14">
+        <v>149</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>334.5</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1143,6 +1429,28 @@
       <c r="K15">
         <v>5</v>
       </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <v>56</v>
+      </c>
+      <c r="O15">
+        <v>12</v>
+      </c>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1178,8 +1486,30 @@
       <c r="K16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>67.5</v>
+      </c>
+      <c r="M16">
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <v>47</v>
+      </c>
+      <c r="O16">
+        <v>81</v>
+      </c>
+      <c r="P16">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>252.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1213,8 +1543,30 @@
       <c r="K17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>60</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>47</v>
+      </c>
+      <c r="O17">
+        <v>113</v>
+      </c>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1248,8 +1600,30 @@
       <c r="K18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>37.5</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>56</v>
+      </c>
+      <c r="O18">
+        <v>172</v>
+      </c>
+      <c r="P18">
+        <v>7</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>301.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1282,6 +1656,28 @@
       </c>
       <c r="K19">
         <v>6</v>
+      </c>
+      <c r="L19">
+        <v>57.5</v>
+      </c>
+      <c r="M19">
+        <v>14</v>
+      </c>
+      <c r="N19">
+        <v>48</v>
+      </c>
+      <c r="O19">
+        <v>93</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="0"/>
+        <v>240.5</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\OneDrive - Mowi ASA\work_files\CrossFit\2024 summer games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84CF97C-56B0-461E-96C1-46FECB386DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1281932-0EF5-4CDC-87B6-AF768149FF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
   <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,6 +710,15 @@
         <f>L2+3*M2+N2+O2</f>
         <v>257.5</v>
       </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -767,6 +776,15 @@
         <f t="shared" ref="R3:R19" si="0">L3+3*M3+N3+O3</f>
         <v>314</v>
       </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>56</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -824,6 +842,15 @@
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>13</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -881,6 +908,15 @@
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -938,6 +974,15 @@
         <f t="shared" si="0"/>
         <v>328</v>
       </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>29</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -995,6 +1040,15 @@
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>47</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1052,6 +1106,15 @@
         <f t="shared" si="0"/>
         <v>277.5</v>
       </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>32</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1109,6 +1172,15 @@
         <f t="shared" si="0"/>
         <v>298</v>
       </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>26</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1166,6 +1238,15 @@
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>33</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1223,6 +1304,15 @@
         <f t="shared" si="0"/>
         <v>225.5</v>
       </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>59</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1280,6 +1370,15 @@
         <f t="shared" si="0"/>
         <v>192.5</v>
       </c>
+      <c r="S12">
+        <v>4</v>
+      </c>
+      <c r="T12">
+        <v>13</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1337,6 +1436,15 @@
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>39</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1394,6 +1502,15 @@
         <f t="shared" si="0"/>
         <v>334.5</v>
       </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>59</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1451,6 +1568,15 @@
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>38</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1508,8 +1634,17 @@
         <f t="shared" si="0"/>
         <v>252.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>16</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1565,8 +1700,17 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>24</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1622,8 +1766,17 @@
         <f t="shared" si="0"/>
         <v>301.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>34</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1678,6 +1831,15 @@
       <c r="R19">
         <f t="shared" si="0"/>
         <v>240.5</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>25</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuanhao.Li\OneDrive - Mowi ASA\work_files\CrossFit\2025 summer games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7752CFA3-120B-4E5A-A23C-B7B46694F3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1E1966-695B-4536-947B-E97B086FA9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
   <sheets>
     <sheet name="Score" sheetId="1" r:id="rId1"/>
@@ -561,25 +561,25 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.88671875" customWidth="1"/>
+    <col min="13" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -649,33 +649,8 @@
         <f>E2+F2</f>
         <v>252</v>
       </c>
-      <c r="H2">
-        <v>15</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1060</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <f>J2+K2*10</f>
-        <v>1120</v>
-      </c>
-      <c r="M2">
-        <v>15</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -698,33 +673,8 @@
         <f t="shared" ref="G3:G19" si="0">E3+F3</f>
         <v>120</v>
       </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>755</v>
-      </c>
-      <c r="K3">
-        <v>23</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L19" si="1">J3+K3*10</f>
-        <v>985</v>
-      </c>
-      <c r="M3">
-        <v>15</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -747,33 +697,8 @@
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="H4">
-        <v>15</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1040</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="1"/>
-        <v>1140</v>
-      </c>
-      <c r="M4">
-        <v>15</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -796,33 +721,8 @@
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="H5">
-        <v>15</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>665</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>775</v>
-      </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -845,33 +745,8 @@
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>665</v>
-      </c>
-      <c r="K6">
-        <v>15</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>815</v>
-      </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -894,33 +769,8 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="H7">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>995</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>1195</v>
-      </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -943,33 +793,8 @@
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="H8">
-        <v>15</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1125</v>
-      </c>
-      <c r="K8">
-        <v>13</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>1255</v>
-      </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -992,33 +817,8 @@
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>830</v>
-      </c>
-      <c r="K9">
-        <v>16</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>990</v>
-      </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1041,33 +841,8 @@
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1085</v>
-      </c>
-      <c r="K10">
-        <v>17</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>1255</v>
-      </c>
-      <c r="M10">
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1090,33 +865,8 @@
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="H11">
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>775</v>
-      </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>865</v>
-      </c>
-      <c r="M11">
-        <v>15</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1139,33 +889,8 @@
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="H12">
-        <v>15</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>945</v>
-      </c>
-      <c r="K12">
-        <v>15</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>1095</v>
-      </c>
-      <c r="M12">
-        <v>15</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1188,33 +913,8 @@
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="H13">
-        <v>15</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>855</v>
-      </c>
-      <c r="K13">
-        <v>13</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>985</v>
-      </c>
-      <c r="M13">
-        <v>15</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1237,33 +937,8 @@
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="H14">
-        <v>15</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>870</v>
-      </c>
-      <c r="K14">
-        <v>17</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>1040</v>
-      </c>
-      <c r="M14">
-        <v>15</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1286,33 +961,8 @@
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>985</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>1055</v>
-      </c>
-      <c r="M15">
-        <v>15</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1335,33 +985,8 @@
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="H16">
-        <v>15</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>515</v>
-      </c>
-      <c r="K16">
-        <v>19</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>705</v>
-      </c>
-      <c r="M16">
-        <v>15</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1384,33 +1009,8 @@
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="H17">
-        <v>15</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1060</v>
-      </c>
-      <c r="K17">
-        <v>22</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>1280</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1433,33 +1033,8 @@
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
-      <c r="H18">
-        <v>15</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>555</v>
-      </c>
-      <c r="K18">
-        <v>21</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>765</v>
-      </c>
-      <c r="M18">
-        <v>15</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1482,33 +1057,8 @@
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="H19">
-        <v>15</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>925</v>
-      </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>985</v>
-      </c>
-      <c r="M19">
-        <v>15</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -1528,33 +1078,8 @@
         <f>E20+F20</f>
         <v>118</v>
       </c>
-      <c r="H20">
-        <v>15</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1000</v>
-      </c>
-      <c r="K20">
-        <v>17</v>
-      </c>
-      <c r="L20">
-        <f>J20+K20*10</f>
-        <v>1170</v>
-      </c>
-      <c r="M20">
-        <v>15</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>53</v>
       </c>
@@ -1573,31 +1098,6 @@
       <c r="G21">
         <f>E21+F21</f>
         <v>133</v>
-      </c>
-      <c r="H21">
-        <v>15</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>990</v>
-      </c>
-      <c r="K21">
-        <v>11</v>
-      </c>
-      <c r="L21">
-        <f>J21+K21*10</f>
-        <v>1100</v>
-      </c>
-      <c r="M21">
-        <v>15</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1618,9 +1118,9 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1628,7 +1128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1636,7 +1136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1644,7 +1144,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1652,7 +1152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1660,7 +1160,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1668,7 +1168,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1676,7 +1176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1684,7 +1184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1692,7 +1192,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1700,7 +1200,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1708,7 +1208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1716,7 +1216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1724,7 +1224,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1732,7 +1232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1740,7 +1240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1748,7 +1248,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1756,7 +1256,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1764,7 +1264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1772,7 +1272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1780,7 +1280,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1E1966-695B-4536-947B-E97B086FA9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A489F49-E5FB-4136-A760-AD8BF847490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,22 +633,6 @@
       <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>208</v>
-      </c>
-      <c r="F2">
-        <v>44</v>
-      </c>
-      <c r="G2">
-        <f>E2+F2</f>
-        <v>252</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -657,22 +641,6 @@
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>35</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G19" si="0">E3+F3</f>
-        <v>120</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -681,22 +649,6 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>87</v>
-      </c>
-      <c r="F4">
-        <v>47</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>134</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -705,22 +657,6 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>114</v>
-      </c>
-      <c r="F5">
-        <v>57</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -729,22 +665,6 @@
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>106</v>
-      </c>
-      <c r="F6">
-        <v>58</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>164</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -753,22 +673,6 @@
       <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>77</v>
-      </c>
-      <c r="F7">
-        <v>48</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -777,22 +681,6 @@
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>87</v>
-      </c>
-      <c r="F8">
-        <v>51</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -801,22 +689,6 @@
       <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>76</v>
-      </c>
-      <c r="F9">
-        <v>35</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -825,22 +697,6 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>111</v>
-      </c>
-      <c r="F10">
-        <v>44</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -849,22 +705,6 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>118</v>
-      </c>
-      <c r="F11">
-        <v>44</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -873,22 +713,6 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>95</v>
-      </c>
-      <c r="F12">
-        <v>34</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -897,22 +721,6 @@
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>76</v>
-      </c>
-      <c r="F13">
-        <v>37</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -921,22 +729,6 @@
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>99</v>
-      </c>
-      <c r="F14">
-        <v>53</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -945,22 +737,6 @@
       <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>105</v>
-      </c>
-      <c r="F15">
-        <v>37</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -969,135 +745,39 @@
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>102</v>
-      </c>
-      <c r="F16">
-        <v>39</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>122</v>
-      </c>
-      <c r="F17">
-        <v>30</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>106</v>
-      </c>
-      <c r="F18">
-        <v>31</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>81</v>
-      </c>
-      <c r="F19">
-        <v>37</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>79</v>
-      </c>
-      <c r="F20">
-        <v>39</v>
-      </c>
-      <c r="G20">
-        <f>E20+F20</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>53</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>88</v>
-      </c>
-      <c r="F21">
-        <v>45</v>
-      </c>
-      <c r="G21">
-        <f>E21+F21</f>
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A489F49-E5FB-4136-A760-AD8BF847490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D70DCF-EE69-4897-8702-05D19D449918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,6 +633,12 @@
       <c r="B2" t="s">
         <v>35</v>
       </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -641,6 +647,12 @@
       <c r="B3" t="s">
         <v>36</v>
       </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -649,6 +661,12 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -657,6 +675,12 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -665,6 +689,12 @@
       <c r="B6" t="s">
         <v>44</v>
       </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -673,6 +703,12 @@
       <c r="B7" t="s">
         <v>54</v>
       </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -681,6 +717,12 @@
       <c r="B8" t="s">
         <v>41</v>
       </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -688,6 +730,12 @@
       </c>
       <c r="B9" t="s">
         <v>40</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -697,6 +745,12 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -705,6 +759,12 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -713,6 +773,12 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -721,6 +787,12 @@
       <c r="B13" t="s">
         <v>45</v>
       </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -729,6 +801,12 @@
       <c r="B14" t="s">
         <v>46</v>
       </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -737,6 +815,12 @@
       <c r="B15" t="s">
         <v>48</v>
       </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -745,39 +829,75 @@
       <c r="B16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>53</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D70DCF-EE69-4897-8702-05D19D449918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09CDDD-84C2-415D-8BD9-765AE06234C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,6 +639,16 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>E2+F2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -653,6 +663,16 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>E3+F3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -667,6 +687,16 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G21" si="0">E4+F4</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -681,6 +711,16 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -695,6 +735,16 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -709,6 +759,16 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -723,6 +783,16 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -735,6 +805,16 @@
         <v>20</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -751,6 +831,16 @@
       <c r="D10">
         <v>0</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -765,6 +855,16 @@
       <c r="D11">
         <v>0</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -779,6 +879,16 @@
       <c r="D12">
         <v>0</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -793,6 +903,16 @@
       <c r="D13">
         <v>0</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -807,6 +927,16 @@
       <c r="D14">
         <v>0</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -821,6 +951,16 @@
       <c r="D15">
         <v>0</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -835,8 +975,18 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -849,8 +999,18 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -863,8 +1023,18 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -877,8 +1047,18 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -888,8 +1068,18 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>53</v>
       </c>
@@ -897,6 +1087,16 @@
         <v>20</v>
       </c>
       <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09CDDD-84C2-415D-8BD9-765AE06234C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EF30A5-319E-4BC9-AF44-50BB637797DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EF30A5-319E-4BC9-AF44-50BB637797DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277F8EFB-FD71-4A12-A882-943BD33DA629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>E3+F3</f>
+        <f t="shared" ref="G3:G21" si="0">E3+F3</f>
         <v>0</v>
       </c>
     </row>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G21" si="0">E4+F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277F8EFB-FD71-4A12-A882-943BD33DA629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F2B12-E07E-4F69-96BD-44074D858A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,14 +640,14 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
         <f>E2+F2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -664,14 +664,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G21" si="0">E3+F3</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -688,14 +688,14 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -712,14 +712,14 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -736,14 +736,14 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -760,14 +760,14 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -784,14 +784,14 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -808,14 +808,14 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -832,14 +832,14 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -856,14 +856,14 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -880,14 +880,14 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -904,14 +904,14 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -928,14 +928,14 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -952,14 +952,14 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -976,14 +976,14 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1000,14 +1000,14 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1024,14 +1024,14 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1048,14 +1048,14 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1069,14 +1069,14 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1090,14 +1090,14 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F2B12-E07E-4F69-96BD-44074D858A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C8F39-A65A-4D88-8E43-DD8DD8E4E60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,22 +633,6 @@
       <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>E2+F2</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -657,22 +641,6 @@
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G21" si="0">E3+F3</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -681,22 +649,6 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -705,22 +657,6 @@
       <c r="B5" t="s">
         <v>38</v>
       </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -729,22 +665,6 @@
       <c r="B6" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -753,22 +673,6 @@
       <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -777,22 +681,6 @@
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -801,22 +689,6 @@
       <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -825,22 +697,6 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -849,22 +705,6 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -873,22 +713,6 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -897,22 +721,6 @@
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -921,22 +729,6 @@
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -945,22 +737,6 @@
       <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -969,135 +745,39 @@
       <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>53</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C8F39-A65A-4D88-8E43-DD8DD8E4E60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3E12C-F303-4428-A179-FE6D62768934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Team</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>Morten, Tarik, Mary, Monica O</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>LAG 19</t>
+  </si>
+  <si>
+    <t>LAG 20</t>
   </si>
 </sst>
 </file>
@@ -558,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +588,7 @@
     <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -626,158 +635,487 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>166</v>
+      </c>
+      <c r="F2">
+        <v>133</v>
+      </c>
+      <c r="G2">
+        <f>E2+F2</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>209</v>
+      </c>
+      <c r="F3">
+        <v>84</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="0">E3+F3</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>109</v>
+      </c>
+      <c r="F4">
+        <v>74</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>184</v>
+      </c>
+      <c r="F5">
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>178</v>
+      </c>
+      <c r="F6">
+        <v>121</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>142</v>
+      </c>
+      <c r="F7">
+        <v>73</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>160</v>
+      </c>
+      <c r="F8">
+        <v>96</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>145</v>
+      </c>
+      <c r="F9">
+        <v>103</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>222</v>
+      </c>
+      <c r="F10">
+        <v>146</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>173</v>
+      </c>
+      <c r="F11">
+        <v>103</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>222</v>
+      </c>
+      <c r="F12">
+        <v>144</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>218</v>
+      </c>
+      <c r="F13">
+        <v>138</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>230</v>
+      </c>
+      <c r="F14">
+        <v>112</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>174</v>
+      </c>
+      <c r="F15">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>159</v>
+      </c>
+      <c r="F16">
+        <v>88</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>197</v>
+      </c>
+      <c r="F17">
+        <v>140</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>180</v>
+      </c>
+      <c r="F18">
+        <v>128</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>230</v>
+      </c>
+      <c r="F19">
+        <v>135</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
       <c r="B20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>95</v>
+      </c>
+      <c r="F20">
+        <v>59</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
       <c r="B21" t="s">
         <v>53</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>160</v>
+      </c>
+      <c r="F21">
+        <v>104</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA3E12C-F303-4428-A179-FE6D62768934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26478678-E8D0-470D-BEF7-D9DB76EB4A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Team</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>Morten, Tarik, Mary, Monica O</t>
-  </si>
-  <si>
-    <t>;</t>
   </si>
   <si>
     <t>LAG 19</t>
@@ -567,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78915278-2E53-45F4-B4B1-D169831C96F1}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +585,7 @@
     <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -635,7 +632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -658,8 +655,24 @@
         <f>E2+F2</f>
         <v>299</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>10320</v>
+      </c>
+      <c r="K2">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <f>J2+K2*20</f>
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -682,8 +695,24 @@
         <f t="shared" ref="G3:G21" si="0">E3+F3</f>
         <v>293</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>9055</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L21" si="1">J3+K3*20</f>
+        <v>9655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -706,8 +735,24 @@
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>9380</v>
+      </c>
+      <c r="K4">
+        <v>57</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>10520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -730,8 +775,24 @@
         <f t="shared" si="0"/>
         <v>286</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>8280</v>
+      </c>
+      <c r="K5">
+        <v>483</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>17940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -754,8 +815,24 @@
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7180</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -778,8 +855,24 @@
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>9640</v>
+      </c>
+      <c r="K7">
+        <v>44</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>10520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -802,8 +895,24 @@
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>8220</v>
+      </c>
+      <c r="K8">
+        <v>109</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -826,8 +935,24 @@
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>8900</v>
+      </c>
+      <c r="K9">
+        <v>181</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>12520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -850,8 +975,24 @@
         <f t="shared" si="0"/>
         <v>368</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>11810</v>
+      </c>
+      <c r="K10">
+        <v>79</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>13390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -874,8 +1015,24 @@
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>8830</v>
+      </c>
+      <c r="K11">
+        <v>33</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>9490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -898,8 +1055,24 @@
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>9980</v>
+      </c>
+      <c r="K12">
+        <v>15</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>10280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -922,8 +1095,24 @@
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10300</v>
+      </c>
+      <c r="K13">
+        <v>96</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>12220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -946,8 +1135,24 @@
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10220</v>
+      </c>
+      <c r="K14">
+        <v>32</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>10860</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -970,8 +1175,24 @@
         <f t="shared" si="0"/>
         <v>284</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>6490</v>
+      </c>
+      <c r="K15">
+        <v>29</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>7070</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -994,11 +1215,24 @@
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-      <c r="P16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>10200</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1021,8 +1255,24 @@
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>8900</v>
+      </c>
+      <c r="K17">
+        <v>102</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>10940</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1045,8 +1295,24 @@
         <f t="shared" si="0"/>
         <v>308</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>7910</v>
+      </c>
+      <c r="K18">
+        <v>32</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1069,10 +1335,26 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>16020</v>
+      </c>
+      <c r="K19">
+        <v>57</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>17160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -1093,10 +1375,26 @@
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>7250</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>7590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -1116,6 +1414,22 @@
       <c r="G21">
         <f t="shared" si="0"/>
         <v>264</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8510</v>
+      </c>
+      <c r="K21">
+        <v>126</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>11030</v>
       </c>
     </row>
   </sheetData>

--- a/Scoreboard.xlsx
+++ b/Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhli1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26478678-E8D0-470D-BEF7-D9DB76EB4A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A785ED6-D8EC-43B7-9840-4A02FBC3FCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96A6929C-9832-4037-ABF1-822A6F612440}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,6 +671,15 @@
         <f>J2+K2*20</f>
         <v>11040</v>
       </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>160</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -711,6 +720,15 @@
         <f t="shared" ref="L3:L21" si="1">J3+K3*20</f>
         <v>9655</v>
       </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -751,6 +769,15 @@
         <f t="shared" si="1"/>
         <v>10520</v>
       </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -791,6 +818,15 @@
         <f t="shared" si="1"/>
         <v>17940</v>
       </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>139</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -831,6 +867,15 @@
         <f t="shared" si="1"/>
         <v>7480</v>
       </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -871,6 +916,15 @@
         <f t="shared" si="1"/>
         <v>10520</v>
       </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -911,6 +965,15 @@
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -951,6 +1014,15 @@
         <f t="shared" si="1"/>
         <v>12520</v>
       </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -991,6 +1063,15 @@
         <f t="shared" si="1"/>
         <v>13390</v>
       </c>
+      <c r="M10">
+        <v>15</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>170</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1031,6 +1112,15 @@
         <f t="shared" si="1"/>
         <v>9490</v>
       </c>
+      <c r="M11">
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1071,6 +1161,15 @@
         <f t="shared" si="1"/>
         <v>10280</v>
       </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>139</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1111,6 +1210,15 @@
         <f t="shared" si="1"/>
         <v>12220</v>
       </c>
+      <c r="M13">
+        <v>15</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>159</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1151,6 +1259,15 @@
         <f t="shared" si="1"/>
         <v>10860</v>
       </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>140</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1191,6 +1308,15 @@
         <f t="shared" si="1"/>
         <v>7070</v>
       </c>
+      <c r="M15">
+        <v>15</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1231,8 +1357,17 @@
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1271,8 +1406,17 @@
         <f t="shared" si="1"/>
         <v>10940</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1311,8 +1455,17 @@
         <f t="shared" si="1"/>
         <v>8550</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1351,8 +1504,17 @@
         <f t="shared" si="1"/>
         <v>17160</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -1391,8 +1553,17 @@
         <f t="shared" si="1"/>
         <v>7590</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1430,6 +1601,15 @@
       <c r="L21">
         <f t="shared" si="1"/>
         <v>11030</v>
+      </c>
+      <c r="M21">
+        <v>15</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
